--- a/xlsx/CaVaTeCo/form_1_enumeradores.xlsx
+++ b/xlsx/CaVaTeCo/form_1_enumeradores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_ilrg_lamadi\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDDEB27-990B-4CC5-A304-D370D4E470C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4343F78F-A11A-46EB-A731-CFBB274EED6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="198">
   <si>
     <t>type</t>
   </si>
@@ -634,9 +634,6 @@
   </si>
   <si>
     <t>"LAMADI - Sofala"</t>
-  </si>
-  <si>
-    <t>http://cavateco.terrafirma.co.mz:8080/lamadi_sofala/submission</t>
   </si>
   <si>
     <t>terrafirma_TN_iTC.jpg</t>
@@ -1222,17 +1219,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1241,33 +1236,32 @@
     <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -1289,25 +1283,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1316,8 +1306,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1344,15 +1333,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1360,17 +1348,13 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="243" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="244">
@@ -1956,7 +1940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1965,1822 +1949,1821 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.59765625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="25" customWidth="1"/>
-    <col min="3" max="3" width="58.3984375" style="23" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.69921875" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.59765625" style="22" customWidth="1"/>
-    <col min="10" max="11" width="13.19921875" style="23" customWidth="1"/>
-    <col min="12" max="13" width="16.3984375" style="23" customWidth="1"/>
-    <col min="14" max="14" width="47.59765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.59765625" style="23" customWidth="1"/>
-    <col min="16" max="16" width="11.09765625" style="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.19921875" style="23" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="23"/>
+    <col min="1" max="1" width="31.59765625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="58.3984375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.59765625" style="20" customWidth="1"/>
+    <col min="10" max="11" width="13.19921875" style="20" customWidth="1"/>
+    <col min="12" max="13" width="16.3984375" style="20" customWidth="1"/>
+    <col min="14" max="14" width="47.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.59765625" style="20" customWidth="1"/>
+    <col min="16" max="16" width="11.09765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.19921875" style="20" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:1025" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1025" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:1025" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40"/>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40"/>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40"/>
-      <c r="BX4" s="40"/>
-      <c r="BY4" s="40"/>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40"/>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40"/>
-      <c r="CJ4" s="40"/>
-      <c r="CK4" s="40"/>
-      <c r="CL4" s="40"/>
-      <c r="CM4" s="40"/>
-      <c r="CN4" s="40"/>
-      <c r="CO4" s="40"/>
-      <c r="CP4" s="40"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="40"/>
-      <c r="CS4" s="40"/>
-      <c r="CT4" s="40"/>
-      <c r="CU4" s="40"/>
-      <c r="CV4" s="40"/>
-      <c r="CW4" s="40"/>
-      <c r="CX4" s="40"/>
-      <c r="CY4" s="40"/>
-      <c r="CZ4" s="40"/>
-      <c r="DA4" s="40"/>
-      <c r="DB4" s="40"/>
-      <c r="DC4" s="40"/>
-      <c r="DD4" s="40"/>
-      <c r="DE4" s="40"/>
-      <c r="DF4" s="40"/>
-      <c r="DG4" s="40"/>
-      <c r="DH4" s="40"/>
-      <c r="DI4" s="40"/>
-      <c r="DJ4" s="40"/>
-      <c r="DK4" s="40"/>
-      <c r="DL4" s="40"/>
-      <c r="DM4" s="40"/>
-      <c r="DN4" s="40"/>
-      <c r="DO4" s="40"/>
-      <c r="DP4" s="40"/>
-      <c r="DQ4" s="40"/>
-      <c r="DR4" s="40"/>
-      <c r="DS4" s="40"/>
-      <c r="DT4" s="40"/>
-      <c r="DU4" s="40"/>
-      <c r="DV4" s="40"/>
-      <c r="DW4" s="40"/>
-      <c r="DX4" s="40"/>
-      <c r="DY4" s="40"/>
-      <c r="DZ4" s="40"/>
-      <c r="EA4" s="40"/>
-      <c r="EB4" s="40"/>
-      <c r="EC4" s="40"/>
-      <c r="ED4" s="40"/>
-      <c r="EE4" s="40"/>
-      <c r="EF4" s="40"/>
-      <c r="EG4" s="40"/>
-      <c r="EH4" s="40"/>
-      <c r="EI4" s="40"/>
-      <c r="EJ4" s="40"/>
-      <c r="EK4" s="40"/>
-      <c r="EL4" s="40"/>
-      <c r="EM4" s="40"/>
-      <c r="EN4" s="40"/>
-      <c r="EO4" s="40"/>
-      <c r="EP4" s="40"/>
-      <c r="EQ4" s="40"/>
-      <c r="ER4" s="40"/>
-      <c r="ES4" s="40"/>
-      <c r="ET4" s="40"/>
-      <c r="EU4" s="40"/>
-      <c r="EV4" s="40"/>
-      <c r="EW4" s="40"/>
-      <c r="EX4" s="40"/>
-      <c r="EY4" s="40"/>
-      <c r="EZ4" s="40"/>
-      <c r="FA4" s="40"/>
-      <c r="FB4" s="40"/>
-      <c r="FC4" s="40"/>
-      <c r="FD4" s="40"/>
-      <c r="FE4" s="40"/>
-      <c r="FF4" s="40"/>
-      <c r="FG4" s="40"/>
-      <c r="FH4" s="40"/>
-      <c r="FI4" s="40"/>
-      <c r="FJ4" s="40"/>
-      <c r="FK4" s="40"/>
-      <c r="FL4" s="40"/>
-      <c r="FM4" s="40"/>
-      <c r="FN4" s="40"/>
-      <c r="FO4" s="40"/>
-      <c r="FP4" s="40"/>
-      <c r="FQ4" s="40"/>
-      <c r="FR4" s="40"/>
-      <c r="FS4" s="40"/>
-      <c r="FT4" s="40"/>
-      <c r="FU4" s="40"/>
-      <c r="FV4" s="40"/>
-      <c r="FW4" s="40"/>
-      <c r="FX4" s="40"/>
-      <c r="FY4" s="40"/>
-      <c r="FZ4" s="40"/>
-      <c r="GA4" s="40"/>
-      <c r="GB4" s="40"/>
-      <c r="GC4" s="40"/>
-      <c r="GD4" s="40"/>
-      <c r="GE4" s="40"/>
-      <c r="GF4" s="40"/>
-      <c r="GG4" s="40"/>
-      <c r="GH4" s="40"/>
-      <c r="GI4" s="40"/>
-      <c r="GJ4" s="40"/>
-      <c r="GK4" s="40"/>
-      <c r="GL4" s="40"/>
-      <c r="GM4" s="40"/>
-      <c r="GN4" s="40"/>
-      <c r="GO4" s="40"/>
-      <c r="GP4" s="40"/>
-      <c r="GQ4" s="40"/>
-      <c r="GR4" s="40"/>
-      <c r="GS4" s="40"/>
-      <c r="GT4" s="40"/>
-      <c r="GU4" s="40"/>
-      <c r="GV4" s="40"/>
-      <c r="GW4" s="40"/>
-      <c r="GX4" s="40"/>
-      <c r="GY4" s="40"/>
-      <c r="GZ4" s="40"/>
-      <c r="HA4" s="40"/>
-      <c r="HB4" s="40"/>
-      <c r="HC4" s="40"/>
-      <c r="HD4" s="40"/>
-      <c r="HE4" s="40"/>
-      <c r="HF4" s="40"/>
-      <c r="HG4" s="40"/>
-      <c r="HH4" s="40"/>
-      <c r="HI4" s="40"/>
-      <c r="HJ4" s="40"/>
-      <c r="HK4" s="40"/>
-      <c r="HL4" s="40"/>
-      <c r="HM4" s="40"/>
-      <c r="HN4" s="40"/>
-      <c r="HO4" s="40"/>
-      <c r="HP4" s="40"/>
-      <c r="HQ4" s="40"/>
-      <c r="HR4" s="40"/>
-      <c r="HS4" s="40"/>
-      <c r="HT4" s="40"/>
-      <c r="HU4" s="40"/>
-      <c r="HV4" s="40"/>
-      <c r="HW4" s="40"/>
-      <c r="HX4" s="40"/>
-      <c r="HY4" s="40"/>
-      <c r="HZ4" s="40"/>
-      <c r="IA4" s="40"/>
-      <c r="IB4" s="40"/>
-      <c r="IC4" s="40"/>
-      <c r="ID4" s="40"/>
-      <c r="IE4" s="40"/>
-      <c r="IF4" s="40"/>
-      <c r="IG4" s="40"/>
-      <c r="IH4" s="40"/>
-      <c r="II4" s="40"/>
-      <c r="IJ4" s="40"/>
-      <c r="IK4" s="40"/>
-      <c r="IL4" s="40"/>
-      <c r="IM4" s="40"/>
-      <c r="IN4" s="40"/>
-      <c r="IO4" s="40"/>
-      <c r="IP4" s="40"/>
-      <c r="IQ4" s="40"/>
-      <c r="IR4" s="40"/>
-      <c r="IS4" s="40"/>
-      <c r="IT4" s="40"/>
-      <c r="IU4" s="40"/>
-      <c r="IV4" s="40"/>
-      <c r="IW4" s="40"/>
-      <c r="IX4" s="40"/>
-      <c r="IY4" s="40"/>
-      <c r="IZ4" s="40"/>
-      <c r="JA4" s="40"/>
-      <c r="JB4" s="40"/>
-      <c r="JC4" s="40"/>
-      <c r="JD4" s="40"/>
-      <c r="JE4" s="40"/>
-      <c r="JF4" s="40"/>
-      <c r="JG4" s="40"/>
-      <c r="JH4" s="40"/>
-      <c r="JI4" s="40"/>
-      <c r="JJ4" s="40"/>
-      <c r="JK4" s="40"/>
-      <c r="JL4" s="40"/>
-      <c r="JM4" s="40"/>
-      <c r="JN4" s="40"/>
-      <c r="JO4" s="40"/>
-      <c r="JP4" s="40"/>
-      <c r="JQ4" s="40"/>
-      <c r="JR4" s="40"/>
-      <c r="JS4" s="40"/>
-      <c r="JT4" s="40"/>
-      <c r="JU4" s="40"/>
-      <c r="JV4" s="40"/>
-      <c r="JW4" s="40"/>
-      <c r="JX4" s="40"/>
-      <c r="JY4" s="40"/>
-      <c r="JZ4" s="40"/>
-      <c r="KA4" s="40"/>
-      <c r="KB4" s="40"/>
-      <c r="KC4" s="40"/>
-      <c r="KD4" s="40"/>
-      <c r="KE4" s="40"/>
-      <c r="KF4" s="40"/>
-      <c r="KG4" s="40"/>
-      <c r="KH4" s="40"/>
-      <c r="KI4" s="40"/>
-      <c r="KJ4" s="40"/>
-      <c r="KK4" s="40"/>
-      <c r="KL4" s="40"/>
-      <c r="KM4" s="40"/>
-      <c r="KN4" s="40"/>
-      <c r="KO4" s="40"/>
-      <c r="KP4" s="40"/>
-      <c r="KQ4" s="40"/>
-      <c r="KR4" s="40"/>
-      <c r="KS4" s="40"/>
-      <c r="KT4" s="40"/>
-      <c r="KU4" s="40"/>
-      <c r="KV4" s="40"/>
-      <c r="KW4" s="40"/>
-      <c r="KX4" s="40"/>
-      <c r="KY4" s="40"/>
-      <c r="KZ4" s="40"/>
-      <c r="LA4" s="40"/>
-      <c r="LB4" s="40"/>
-      <c r="LC4" s="40"/>
-      <c r="LD4" s="40"/>
-      <c r="LE4" s="40"/>
-      <c r="LF4" s="40"/>
-      <c r="LG4" s="40"/>
-      <c r="LH4" s="40"/>
-      <c r="LI4" s="40"/>
-      <c r="LJ4" s="40"/>
-      <c r="LK4" s="40"/>
-      <c r="LL4" s="40"/>
-      <c r="LM4" s="40"/>
-      <c r="LN4" s="40"/>
-      <c r="LO4" s="40"/>
-      <c r="LP4" s="40"/>
-      <c r="LQ4" s="40"/>
-      <c r="LR4" s="40"/>
-      <c r="LS4" s="40"/>
-      <c r="LT4" s="40"/>
-      <c r="LU4" s="40"/>
-      <c r="LV4" s="40"/>
-      <c r="LW4" s="40"/>
-      <c r="LX4" s="40"/>
-      <c r="LY4" s="40"/>
-      <c r="LZ4" s="40"/>
-      <c r="MA4" s="40"/>
-      <c r="MB4" s="40"/>
-      <c r="MC4" s="40"/>
-      <c r="MD4" s="40"/>
-      <c r="ME4" s="40"/>
-      <c r="MF4" s="40"/>
-      <c r="MG4" s="40"/>
-      <c r="MH4" s="40"/>
-      <c r="MI4" s="40"/>
-      <c r="MJ4" s="40"/>
-      <c r="MK4" s="40"/>
-      <c r="ML4" s="40"/>
-      <c r="MM4" s="40"/>
-      <c r="MN4" s="40"/>
-      <c r="MO4" s="40"/>
-      <c r="MP4" s="40"/>
-      <c r="MQ4" s="40"/>
-      <c r="MR4" s="40"/>
-      <c r="MS4" s="40"/>
-      <c r="MT4" s="40"/>
-      <c r="MU4" s="40"/>
-      <c r="MV4" s="40"/>
-      <c r="MW4" s="40"/>
-      <c r="MX4" s="40"/>
-      <c r="MY4" s="40"/>
-      <c r="MZ4" s="40"/>
-      <c r="NA4" s="40"/>
-      <c r="NB4" s="40"/>
-      <c r="NC4" s="40"/>
-      <c r="ND4" s="40"/>
-      <c r="NE4" s="40"/>
-      <c r="NF4" s="40"/>
-      <c r="NG4" s="40"/>
-      <c r="NH4" s="40"/>
-      <c r="NI4" s="40"/>
-      <c r="NJ4" s="40"/>
-      <c r="NK4" s="40"/>
-      <c r="NL4" s="40"/>
-      <c r="NM4" s="40"/>
-      <c r="NN4" s="40"/>
-      <c r="NO4" s="40"/>
-      <c r="NP4" s="40"/>
-      <c r="NQ4" s="40"/>
-      <c r="NR4" s="40"/>
-      <c r="NS4" s="40"/>
-      <c r="NT4" s="40"/>
-      <c r="NU4" s="40"/>
-      <c r="NV4" s="40"/>
-      <c r="NW4" s="40"/>
-      <c r="NX4" s="40"/>
-      <c r="NY4" s="40"/>
-      <c r="NZ4" s="40"/>
-      <c r="OA4" s="40"/>
-      <c r="OB4" s="40"/>
-      <c r="OC4" s="40"/>
-      <c r="OD4" s="40"/>
-      <c r="OE4" s="40"/>
-      <c r="OF4" s="40"/>
-      <c r="OG4" s="40"/>
-      <c r="OH4" s="40"/>
-      <c r="OI4" s="40"/>
-      <c r="OJ4" s="40"/>
-      <c r="OK4" s="40"/>
-      <c r="OL4" s="40"/>
-      <c r="OM4" s="40"/>
-      <c r="ON4" s="40"/>
-      <c r="OO4" s="40"/>
-      <c r="OP4" s="40"/>
-      <c r="OQ4" s="40"/>
-      <c r="OR4" s="40"/>
-      <c r="OS4" s="40"/>
-      <c r="OT4" s="40"/>
-      <c r="OU4" s="40"/>
-      <c r="OV4" s="40"/>
-      <c r="OW4" s="40"/>
-      <c r="OX4" s="40"/>
-      <c r="OY4" s="40"/>
-      <c r="OZ4" s="40"/>
-      <c r="PA4" s="40"/>
-      <c r="PB4" s="40"/>
-      <c r="PC4" s="40"/>
-      <c r="PD4" s="40"/>
-      <c r="PE4" s="40"/>
-      <c r="PF4" s="40"/>
-      <c r="PG4" s="40"/>
-      <c r="PH4" s="40"/>
-      <c r="PI4" s="40"/>
-      <c r="PJ4" s="40"/>
-      <c r="PK4" s="40"/>
-      <c r="PL4" s="40"/>
-      <c r="PM4" s="40"/>
-      <c r="PN4" s="40"/>
-      <c r="PO4" s="40"/>
-      <c r="PP4" s="40"/>
-      <c r="PQ4" s="40"/>
-      <c r="PR4" s="40"/>
-      <c r="PS4" s="40"/>
-      <c r="PT4" s="40"/>
-      <c r="PU4" s="40"/>
-      <c r="PV4" s="40"/>
-      <c r="PW4" s="40"/>
-      <c r="PX4" s="40"/>
-      <c r="PY4" s="40"/>
-      <c r="PZ4" s="40"/>
-      <c r="QA4" s="40"/>
-      <c r="QB4" s="40"/>
-      <c r="QC4" s="40"/>
-      <c r="QD4" s="40"/>
-      <c r="QE4" s="40"/>
-      <c r="QF4" s="40"/>
-      <c r="QG4" s="40"/>
-      <c r="QH4" s="40"/>
-      <c r="QI4" s="40"/>
-      <c r="QJ4" s="40"/>
-      <c r="QK4" s="40"/>
-      <c r="QL4" s="40"/>
-      <c r="QM4" s="40"/>
-      <c r="QN4" s="40"/>
-      <c r="QO4" s="40"/>
-      <c r="QP4" s="40"/>
-      <c r="QQ4" s="40"/>
-      <c r="QR4" s="40"/>
-      <c r="QS4" s="40"/>
-      <c r="QT4" s="40"/>
-      <c r="QU4" s="40"/>
-      <c r="QV4" s="40"/>
-      <c r="QW4" s="40"/>
-      <c r="QX4" s="40"/>
-      <c r="QY4" s="40"/>
-      <c r="QZ4" s="40"/>
-      <c r="RA4" s="40"/>
-      <c r="RB4" s="40"/>
-      <c r="RC4" s="40"/>
-      <c r="RD4" s="40"/>
-      <c r="RE4" s="40"/>
-      <c r="RF4" s="40"/>
-      <c r="RG4" s="40"/>
-      <c r="RH4" s="40"/>
-      <c r="RI4" s="40"/>
-      <c r="RJ4" s="40"/>
-      <c r="RK4" s="40"/>
-      <c r="RL4" s="40"/>
-      <c r="RM4" s="40"/>
-      <c r="RN4" s="40"/>
-      <c r="RO4" s="40"/>
-      <c r="RP4" s="40"/>
-      <c r="RQ4" s="40"/>
-      <c r="RR4" s="40"/>
-      <c r="RS4" s="40"/>
-      <c r="RT4" s="40"/>
-      <c r="RU4" s="40"/>
-      <c r="RV4" s="40"/>
-      <c r="RW4" s="40"/>
-      <c r="RX4" s="40"/>
-      <c r="RY4" s="40"/>
-      <c r="RZ4" s="40"/>
-      <c r="SA4" s="40"/>
-      <c r="SB4" s="40"/>
-      <c r="SC4" s="40"/>
-      <c r="SD4" s="40"/>
-      <c r="SE4" s="40"/>
-      <c r="SF4" s="40"/>
-      <c r="SG4" s="40"/>
-      <c r="SH4" s="40"/>
-      <c r="SI4" s="40"/>
-      <c r="SJ4" s="40"/>
-      <c r="SK4" s="40"/>
-      <c r="SL4" s="40"/>
-      <c r="SM4" s="40"/>
-      <c r="SN4" s="40"/>
-      <c r="SO4" s="40"/>
-      <c r="SP4" s="40"/>
-      <c r="SQ4" s="40"/>
-      <c r="SR4" s="40"/>
-      <c r="SS4" s="40"/>
-      <c r="ST4" s="40"/>
-      <c r="SU4" s="40"/>
-      <c r="SV4" s="40"/>
-      <c r="SW4" s="40"/>
-      <c r="SX4" s="40"/>
-      <c r="SY4" s="40"/>
-      <c r="SZ4" s="40"/>
-      <c r="TA4" s="40"/>
-      <c r="TB4" s="40"/>
-      <c r="TC4" s="40"/>
-      <c r="TD4" s="40"/>
-      <c r="TE4" s="40"/>
-      <c r="TF4" s="40"/>
-      <c r="TG4" s="40"/>
-      <c r="TH4" s="40"/>
-      <c r="TI4" s="40"/>
-      <c r="TJ4" s="40"/>
-      <c r="TK4" s="40"/>
-      <c r="TL4" s="40"/>
-      <c r="TM4" s="40"/>
-      <c r="TN4" s="40"/>
-      <c r="TO4" s="40"/>
-      <c r="TP4" s="40"/>
-      <c r="TQ4" s="40"/>
-      <c r="TR4" s="40"/>
-      <c r="TS4" s="40"/>
-      <c r="TT4" s="40"/>
-      <c r="TU4" s="40"/>
-      <c r="TV4" s="40"/>
-      <c r="TW4" s="40"/>
-      <c r="TX4" s="40"/>
-      <c r="TY4" s="40"/>
-      <c r="TZ4" s="40"/>
-      <c r="UA4" s="40"/>
-      <c r="UB4" s="40"/>
-      <c r="UC4" s="40"/>
-      <c r="UD4" s="40"/>
-      <c r="UE4" s="40"/>
-      <c r="UF4" s="40"/>
-      <c r="UG4" s="40"/>
-      <c r="UH4" s="40"/>
-      <c r="UI4" s="40"/>
-      <c r="UJ4" s="40"/>
-      <c r="UK4" s="40"/>
-      <c r="UL4" s="40"/>
-      <c r="UM4" s="40"/>
-      <c r="UN4" s="40"/>
-      <c r="UO4" s="40"/>
-      <c r="UP4" s="40"/>
-      <c r="UQ4" s="40"/>
-      <c r="UR4" s="40"/>
-      <c r="US4" s="40"/>
-      <c r="UT4" s="40"/>
-      <c r="UU4" s="40"/>
-      <c r="UV4" s="40"/>
-      <c r="UW4" s="40"/>
-      <c r="UX4" s="40"/>
-      <c r="UY4" s="40"/>
-      <c r="UZ4" s="40"/>
-      <c r="VA4" s="40"/>
-      <c r="VB4" s="40"/>
-      <c r="VC4" s="40"/>
-      <c r="VD4" s="40"/>
-      <c r="VE4" s="40"/>
-      <c r="VF4" s="40"/>
-      <c r="VG4" s="40"/>
-      <c r="VH4" s="40"/>
-      <c r="VI4" s="40"/>
-      <c r="VJ4" s="40"/>
-      <c r="VK4" s="40"/>
-      <c r="VL4" s="40"/>
-      <c r="VM4" s="40"/>
-      <c r="VN4" s="40"/>
-      <c r="VO4" s="40"/>
-      <c r="VP4" s="40"/>
-      <c r="VQ4" s="40"/>
-      <c r="VR4" s="40"/>
-      <c r="VS4" s="40"/>
-      <c r="VT4" s="40"/>
-      <c r="VU4" s="40"/>
-      <c r="VV4" s="40"/>
-      <c r="VW4" s="40"/>
-      <c r="VX4" s="40"/>
-      <c r="VY4" s="40"/>
-      <c r="VZ4" s="40"/>
-      <c r="WA4" s="40"/>
-      <c r="WB4" s="40"/>
-      <c r="WC4" s="40"/>
-      <c r="WD4" s="40"/>
-      <c r="WE4" s="40"/>
-      <c r="WF4" s="40"/>
-      <c r="WG4" s="40"/>
-      <c r="WH4" s="40"/>
-      <c r="WI4" s="40"/>
-      <c r="WJ4" s="40"/>
-      <c r="WK4" s="40"/>
-      <c r="WL4" s="40"/>
-      <c r="WM4" s="40"/>
-      <c r="WN4" s="40"/>
-      <c r="WO4" s="40"/>
-      <c r="WP4" s="40"/>
-      <c r="WQ4" s="40"/>
-      <c r="WR4" s="40"/>
-      <c r="WS4" s="40"/>
-      <c r="WT4" s="40"/>
-      <c r="WU4" s="40"/>
-      <c r="WV4" s="40"/>
-      <c r="WW4" s="40"/>
-      <c r="WX4" s="40"/>
-      <c r="WY4" s="40"/>
-      <c r="WZ4" s="40"/>
-      <c r="XA4" s="40"/>
-      <c r="XB4" s="40"/>
-      <c r="XC4" s="40"/>
-      <c r="XD4" s="40"/>
-      <c r="XE4" s="40"/>
-      <c r="XF4" s="40"/>
-      <c r="XG4" s="40"/>
-      <c r="XH4" s="40"/>
-      <c r="XI4" s="40"/>
-      <c r="XJ4" s="40"/>
-      <c r="XK4" s="40"/>
-      <c r="XL4" s="40"/>
-      <c r="XM4" s="40"/>
-      <c r="XN4" s="40"/>
-      <c r="XO4" s="40"/>
-      <c r="XP4" s="40"/>
-      <c r="XQ4" s="40"/>
-      <c r="XR4" s="40"/>
-      <c r="XS4" s="40"/>
-      <c r="XT4" s="40"/>
-      <c r="XU4" s="40"/>
-      <c r="XV4" s="40"/>
-      <c r="XW4" s="40"/>
-      <c r="XX4" s="40"/>
-      <c r="XY4" s="40"/>
-      <c r="XZ4" s="40"/>
-      <c r="YA4" s="40"/>
-      <c r="YB4" s="40"/>
-      <c r="YC4" s="40"/>
-      <c r="YD4" s="40"/>
-      <c r="YE4" s="40"/>
-      <c r="YF4" s="40"/>
-      <c r="YG4" s="40"/>
-      <c r="YH4" s="40"/>
-      <c r="YI4" s="40"/>
-      <c r="YJ4" s="40"/>
-      <c r="YK4" s="40"/>
-      <c r="YL4" s="40"/>
-      <c r="YM4" s="40"/>
-      <c r="YN4" s="40"/>
-      <c r="YO4" s="40"/>
-      <c r="YP4" s="40"/>
-      <c r="YQ4" s="40"/>
-      <c r="YR4" s="40"/>
-      <c r="YS4" s="40"/>
-      <c r="YT4" s="40"/>
-      <c r="YU4" s="40"/>
-      <c r="YV4" s="40"/>
-      <c r="YW4" s="40"/>
-      <c r="YX4" s="40"/>
-      <c r="YY4" s="40"/>
-      <c r="YZ4" s="40"/>
-      <c r="ZA4" s="40"/>
-      <c r="ZB4" s="40"/>
-      <c r="ZC4" s="40"/>
-      <c r="ZD4" s="40"/>
-      <c r="ZE4" s="40"/>
-      <c r="ZF4" s="40"/>
-      <c r="ZG4" s="40"/>
-      <c r="ZH4" s="40"/>
-      <c r="ZI4" s="40"/>
-      <c r="ZJ4" s="40"/>
-      <c r="ZK4" s="40"/>
-      <c r="ZL4" s="40"/>
-      <c r="ZM4" s="40"/>
-      <c r="ZN4" s="40"/>
-      <c r="ZO4" s="40"/>
-      <c r="ZP4" s="40"/>
-      <c r="ZQ4" s="40"/>
-      <c r="ZR4" s="40"/>
-      <c r="ZS4" s="40"/>
-      <c r="ZT4" s="40"/>
-      <c r="ZU4" s="40"/>
-      <c r="ZV4" s="40"/>
-      <c r="ZW4" s="40"/>
-      <c r="ZX4" s="40"/>
-      <c r="ZY4" s="40"/>
-      <c r="ZZ4" s="40"/>
-      <c r="AAA4" s="40"/>
-      <c r="AAB4" s="40"/>
-      <c r="AAC4" s="40"/>
-      <c r="AAD4" s="40"/>
-      <c r="AAE4" s="40"/>
-      <c r="AAF4" s="40"/>
-      <c r="AAG4" s="40"/>
-      <c r="AAH4" s="40"/>
-      <c r="AAI4" s="40"/>
-      <c r="AAJ4" s="40"/>
-      <c r="AAK4" s="40"/>
-      <c r="AAL4" s="40"/>
-      <c r="AAM4" s="40"/>
-      <c r="AAN4" s="40"/>
-      <c r="AAO4" s="40"/>
-      <c r="AAP4" s="40"/>
-      <c r="AAQ4" s="40"/>
-      <c r="AAR4" s="40"/>
-      <c r="AAS4" s="40"/>
-      <c r="AAT4" s="40"/>
-      <c r="AAU4" s="40"/>
-      <c r="AAV4" s="40"/>
-      <c r="AAW4" s="40"/>
-      <c r="AAX4" s="40"/>
-      <c r="AAY4" s="40"/>
-      <c r="AAZ4" s="40"/>
-      <c r="ABA4" s="40"/>
-      <c r="ABB4" s="40"/>
-      <c r="ABC4" s="40"/>
-      <c r="ABD4" s="40"/>
-      <c r="ABE4" s="40"/>
-      <c r="ABF4" s="40"/>
-      <c r="ABG4" s="40"/>
-      <c r="ABH4" s="40"/>
-      <c r="ABI4" s="40"/>
-      <c r="ABJ4" s="40"/>
-      <c r="ABK4" s="40"/>
-      <c r="ABL4" s="40"/>
-      <c r="ABM4" s="40"/>
-      <c r="ABN4" s="40"/>
-      <c r="ABO4" s="40"/>
-      <c r="ABP4" s="40"/>
-      <c r="ABQ4" s="40"/>
-      <c r="ABR4" s="40"/>
-      <c r="ABS4" s="40"/>
-      <c r="ABT4" s="40"/>
-      <c r="ABU4" s="40"/>
-      <c r="ABV4" s="40"/>
-      <c r="ABW4" s="40"/>
-      <c r="ABX4" s="40"/>
-      <c r="ABY4" s="40"/>
-      <c r="ABZ4" s="40"/>
-      <c r="ACA4" s="40"/>
-      <c r="ACB4" s="40"/>
-      <c r="ACC4" s="40"/>
-      <c r="ACD4" s="40"/>
-      <c r="ACE4" s="40"/>
-      <c r="ACF4" s="40"/>
-      <c r="ACG4" s="40"/>
-      <c r="ACH4" s="40"/>
-      <c r="ACI4" s="40"/>
-      <c r="ACJ4" s="40"/>
-      <c r="ACK4" s="40"/>
-      <c r="ACL4" s="40"/>
-      <c r="ACM4" s="40"/>
-      <c r="ACN4" s="40"/>
-      <c r="ACO4" s="40"/>
-      <c r="ACP4" s="40"/>
-      <c r="ACQ4" s="40"/>
-      <c r="ACR4" s="40"/>
-      <c r="ACS4" s="40"/>
-      <c r="ACT4" s="40"/>
-      <c r="ACU4" s="40"/>
-      <c r="ACV4" s="40"/>
-      <c r="ACW4" s="40"/>
-      <c r="ACX4" s="40"/>
-      <c r="ACY4" s="40"/>
-      <c r="ACZ4" s="40"/>
-      <c r="ADA4" s="40"/>
-      <c r="ADB4" s="40"/>
-      <c r="ADC4" s="40"/>
-      <c r="ADD4" s="40"/>
-      <c r="ADE4" s="40"/>
-      <c r="ADF4" s="40"/>
-      <c r="ADG4" s="40"/>
-      <c r="ADH4" s="40"/>
-      <c r="ADI4" s="40"/>
-      <c r="ADJ4" s="40"/>
-      <c r="ADK4" s="40"/>
-      <c r="ADL4" s="40"/>
-      <c r="ADM4" s="40"/>
-      <c r="ADN4" s="40"/>
-      <c r="ADO4" s="40"/>
-      <c r="ADP4" s="40"/>
-      <c r="ADQ4" s="40"/>
-      <c r="ADR4" s="40"/>
-      <c r="ADS4" s="40"/>
-      <c r="ADT4" s="40"/>
-      <c r="ADU4" s="40"/>
-      <c r="ADV4" s="40"/>
-      <c r="ADW4" s="40"/>
-      <c r="ADX4" s="40"/>
-      <c r="ADY4" s="40"/>
-      <c r="ADZ4" s="40"/>
-      <c r="AEA4" s="40"/>
-      <c r="AEB4" s="40"/>
-      <c r="AEC4" s="40"/>
-      <c r="AED4" s="40"/>
-      <c r="AEE4" s="40"/>
-      <c r="AEF4" s="40"/>
-      <c r="AEG4" s="40"/>
-      <c r="AEH4" s="40"/>
-      <c r="AEI4" s="40"/>
-      <c r="AEJ4" s="40"/>
-      <c r="AEK4" s="40"/>
-      <c r="AEL4" s="40"/>
-      <c r="AEM4" s="40"/>
-      <c r="AEN4" s="40"/>
-      <c r="AEO4" s="40"/>
-      <c r="AEP4" s="40"/>
-      <c r="AEQ4" s="40"/>
-      <c r="AER4" s="40"/>
-      <c r="AES4" s="40"/>
-      <c r="AET4" s="40"/>
-      <c r="AEU4" s="40"/>
-      <c r="AEV4" s="40"/>
-      <c r="AEW4" s="40"/>
-      <c r="AEX4" s="40"/>
-      <c r="AEY4" s="40"/>
-      <c r="AEZ4" s="40"/>
-      <c r="AFA4" s="40"/>
-      <c r="AFB4" s="40"/>
-      <c r="AFC4" s="40"/>
-      <c r="AFD4" s="40"/>
-      <c r="AFE4" s="40"/>
-      <c r="AFF4" s="40"/>
-      <c r="AFG4" s="40"/>
-      <c r="AFH4" s="40"/>
-      <c r="AFI4" s="40"/>
-      <c r="AFJ4" s="40"/>
-      <c r="AFK4" s="40"/>
-      <c r="AFL4" s="40"/>
-      <c r="AFM4" s="40"/>
-      <c r="AFN4" s="40"/>
-      <c r="AFO4" s="40"/>
-      <c r="AFP4" s="40"/>
-      <c r="AFQ4" s="40"/>
-      <c r="AFR4" s="40"/>
-      <c r="AFS4" s="40"/>
-      <c r="AFT4" s="40"/>
-      <c r="AFU4" s="40"/>
-      <c r="AFV4" s="40"/>
-      <c r="AFW4" s="40"/>
-      <c r="AFX4" s="40"/>
-      <c r="AFY4" s="40"/>
-      <c r="AFZ4" s="40"/>
-      <c r="AGA4" s="40"/>
-      <c r="AGB4" s="40"/>
-      <c r="AGC4" s="40"/>
-      <c r="AGD4" s="40"/>
-      <c r="AGE4" s="40"/>
-      <c r="AGF4" s="40"/>
-      <c r="AGG4" s="40"/>
-      <c r="AGH4" s="40"/>
-      <c r="AGI4" s="40"/>
-      <c r="AGJ4" s="40"/>
-      <c r="AGK4" s="40"/>
-      <c r="AGL4" s="40"/>
-      <c r="AGM4" s="40"/>
-      <c r="AGN4" s="40"/>
-      <c r="AGO4" s="40"/>
-      <c r="AGP4" s="40"/>
-      <c r="AGQ4" s="40"/>
-      <c r="AGR4" s="40"/>
-      <c r="AGS4" s="40"/>
-      <c r="AGT4" s="40"/>
-      <c r="AGU4" s="40"/>
-      <c r="AGV4" s="40"/>
-      <c r="AGW4" s="40"/>
-      <c r="AGX4" s="40"/>
-      <c r="AGY4" s="40"/>
-      <c r="AGZ4" s="40"/>
-      <c r="AHA4" s="40"/>
-      <c r="AHB4" s="40"/>
-      <c r="AHC4" s="40"/>
-      <c r="AHD4" s="40"/>
-      <c r="AHE4" s="40"/>
-      <c r="AHF4" s="40"/>
-      <c r="AHG4" s="40"/>
-      <c r="AHH4" s="40"/>
-      <c r="AHI4" s="40"/>
-      <c r="AHJ4" s="40"/>
-      <c r="AHK4" s="40"/>
-      <c r="AHL4" s="40"/>
-      <c r="AHM4" s="40"/>
-      <c r="AHN4" s="40"/>
-      <c r="AHO4" s="40"/>
-      <c r="AHP4" s="40"/>
-      <c r="AHQ4" s="40"/>
-      <c r="AHR4" s="40"/>
-      <c r="AHS4" s="40"/>
-      <c r="AHT4" s="40"/>
-      <c r="AHU4" s="40"/>
-      <c r="AHV4" s="40"/>
-      <c r="AHW4" s="40"/>
-      <c r="AHX4" s="40"/>
-      <c r="AHY4" s="40"/>
-      <c r="AHZ4" s="40"/>
-      <c r="AIA4" s="40"/>
-      <c r="AIB4" s="40"/>
-      <c r="AIC4" s="40"/>
-      <c r="AID4" s="40"/>
-      <c r="AIE4" s="40"/>
-      <c r="AIF4" s="40"/>
-      <c r="AIG4" s="40"/>
-      <c r="AIH4" s="40"/>
-      <c r="AII4" s="40"/>
-      <c r="AIJ4" s="40"/>
-      <c r="AIK4" s="40"/>
-      <c r="AIL4" s="40"/>
-      <c r="AIM4" s="40"/>
-      <c r="AIN4" s="40"/>
-      <c r="AIO4" s="40"/>
-      <c r="AIP4" s="40"/>
-      <c r="AIQ4" s="40"/>
-      <c r="AIR4" s="40"/>
-      <c r="AIS4" s="40"/>
-      <c r="AIT4" s="40"/>
-      <c r="AIU4" s="40"/>
-      <c r="AIV4" s="40"/>
-      <c r="AIW4" s="40"/>
-      <c r="AIX4" s="40"/>
-      <c r="AIY4" s="40"/>
-      <c r="AIZ4" s="40"/>
-      <c r="AJA4" s="40"/>
-      <c r="AJB4" s="40"/>
-      <c r="AJC4" s="40"/>
-      <c r="AJD4" s="40"/>
-      <c r="AJE4" s="40"/>
-      <c r="AJF4" s="40"/>
-      <c r="AJG4" s="40"/>
-      <c r="AJH4" s="40"/>
-      <c r="AJI4" s="40"/>
-      <c r="AJJ4" s="40"/>
-      <c r="AJK4" s="40"/>
-      <c r="AJL4" s="40"/>
-      <c r="AJM4" s="40"/>
-      <c r="AJN4" s="40"/>
-      <c r="AJO4" s="40"/>
-      <c r="AJP4" s="40"/>
-      <c r="AJQ4" s="40"/>
-      <c r="AJR4" s="40"/>
-      <c r="AJS4" s="40"/>
-      <c r="AJT4" s="40"/>
-      <c r="AJU4" s="40"/>
-      <c r="AJV4" s="40"/>
-      <c r="AJW4" s="40"/>
-      <c r="AJX4" s="40"/>
-      <c r="AJY4" s="40"/>
-      <c r="AJZ4" s="40"/>
-      <c r="AKA4" s="40"/>
-      <c r="AKB4" s="40"/>
-      <c r="AKC4" s="40"/>
-      <c r="AKD4" s="40"/>
-      <c r="AKE4" s="40"/>
-      <c r="AKF4" s="40"/>
-      <c r="AKG4" s="40"/>
-      <c r="AKH4" s="40"/>
-      <c r="AKI4" s="40"/>
-      <c r="AKJ4" s="40"/>
-      <c r="AKK4" s="40"/>
-      <c r="AKL4" s="40"/>
-      <c r="AKM4" s="40"/>
-      <c r="AKN4" s="40"/>
-      <c r="AKO4" s="40"/>
-      <c r="AKP4" s="40"/>
-      <c r="AKQ4" s="40"/>
-      <c r="AKR4" s="40"/>
-      <c r="AKS4" s="40"/>
-      <c r="AKT4" s="40"/>
-      <c r="AKU4" s="40"/>
-      <c r="AKV4" s="40"/>
-      <c r="AKW4" s="40"/>
-      <c r="AKX4" s="40"/>
-      <c r="AKY4" s="40"/>
-      <c r="AKZ4" s="40"/>
-      <c r="ALA4" s="40"/>
-      <c r="ALB4" s="40"/>
-      <c r="ALC4" s="40"/>
-      <c r="ALD4" s="40"/>
-      <c r="ALE4" s="40"/>
-      <c r="ALF4" s="40"/>
-      <c r="ALG4" s="40"/>
-      <c r="ALH4" s="40"/>
-      <c r="ALI4" s="40"/>
-      <c r="ALJ4" s="40"/>
-      <c r="ALK4" s="40"/>
-      <c r="ALL4" s="40"/>
-      <c r="ALM4" s="40"/>
-      <c r="ALN4" s="40"/>
-      <c r="ALO4" s="40"/>
-      <c r="ALP4" s="40"/>
-      <c r="ALQ4" s="40"/>
-      <c r="ALR4" s="40"/>
-      <c r="ALS4" s="40"/>
-      <c r="ALT4" s="40"/>
-      <c r="ALU4" s="40"/>
-      <c r="ALV4" s="40"/>
-      <c r="ALW4" s="40"/>
-      <c r="ALX4" s="40"/>
-      <c r="ALY4" s="40"/>
-      <c r="ALZ4" s="40"/>
-      <c r="AMA4" s="40"/>
-      <c r="AMB4" s="40"/>
-      <c r="AMC4" s="40"/>
-      <c r="AMD4" s="40"/>
-      <c r="AME4" s="40"/>
-      <c r="AMF4" s="40"/>
-      <c r="AMG4" s="40"/>
-      <c r="AMH4" s="40"/>
-      <c r="AMI4" s="40"/>
-      <c r="AMJ4" s="40"/>
-      <c r="AMK4" s="40"/>
-    </row>
-    <row r="5" spans="1:1025" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="C4" s="52"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+      <c r="CA4" s="35"/>
+      <c r="CB4" s="35"/>
+      <c r="CC4" s="35"/>
+      <c r="CD4" s="35"/>
+      <c r="CE4" s="35"/>
+      <c r="CF4" s="35"/>
+      <c r="CG4" s="35"/>
+      <c r="CH4" s="35"/>
+      <c r="CI4" s="35"/>
+      <c r="CJ4" s="35"/>
+      <c r="CK4" s="35"/>
+      <c r="CL4" s="35"/>
+      <c r="CM4" s="35"/>
+      <c r="CN4" s="35"/>
+      <c r="CO4" s="35"/>
+      <c r="CP4" s="35"/>
+      <c r="CQ4" s="35"/>
+      <c r="CR4" s="35"/>
+      <c r="CS4" s="35"/>
+      <c r="CT4" s="35"/>
+      <c r="CU4" s="35"/>
+      <c r="CV4" s="35"/>
+      <c r="CW4" s="35"/>
+      <c r="CX4" s="35"/>
+      <c r="CY4" s="35"/>
+      <c r="CZ4" s="35"/>
+      <c r="DA4" s="35"/>
+      <c r="DB4" s="35"/>
+      <c r="DC4" s="35"/>
+      <c r="DD4" s="35"/>
+      <c r="DE4" s="35"/>
+      <c r="DF4" s="35"/>
+      <c r="DG4" s="35"/>
+      <c r="DH4" s="35"/>
+      <c r="DI4" s="35"/>
+      <c r="DJ4" s="35"/>
+      <c r="DK4" s="35"/>
+      <c r="DL4" s="35"/>
+      <c r="DM4" s="35"/>
+      <c r="DN4" s="35"/>
+      <c r="DO4" s="35"/>
+      <c r="DP4" s="35"/>
+      <c r="DQ4" s="35"/>
+      <c r="DR4" s="35"/>
+      <c r="DS4" s="35"/>
+      <c r="DT4" s="35"/>
+      <c r="DU4" s="35"/>
+      <c r="DV4" s="35"/>
+      <c r="DW4" s="35"/>
+      <c r="DX4" s="35"/>
+      <c r="DY4" s="35"/>
+      <c r="DZ4" s="35"/>
+      <c r="EA4" s="35"/>
+      <c r="EB4" s="35"/>
+      <c r="EC4" s="35"/>
+      <c r="ED4" s="35"/>
+      <c r="EE4" s="35"/>
+      <c r="EF4" s="35"/>
+      <c r="EG4" s="35"/>
+      <c r="EH4" s="35"/>
+      <c r="EI4" s="35"/>
+      <c r="EJ4" s="35"/>
+      <c r="EK4" s="35"/>
+      <c r="EL4" s="35"/>
+      <c r="EM4" s="35"/>
+      <c r="EN4" s="35"/>
+      <c r="EO4" s="35"/>
+      <c r="EP4" s="35"/>
+      <c r="EQ4" s="35"/>
+      <c r="ER4" s="35"/>
+      <c r="ES4" s="35"/>
+      <c r="ET4" s="35"/>
+      <c r="EU4" s="35"/>
+      <c r="EV4" s="35"/>
+      <c r="EW4" s="35"/>
+      <c r="EX4" s="35"/>
+      <c r="EY4" s="35"/>
+      <c r="EZ4" s="35"/>
+      <c r="FA4" s="35"/>
+      <c r="FB4" s="35"/>
+      <c r="FC4" s="35"/>
+      <c r="FD4" s="35"/>
+      <c r="FE4" s="35"/>
+      <c r="FF4" s="35"/>
+      <c r="FG4" s="35"/>
+      <c r="FH4" s="35"/>
+      <c r="FI4" s="35"/>
+      <c r="FJ4" s="35"/>
+      <c r="FK4" s="35"/>
+      <c r="FL4" s="35"/>
+      <c r="FM4" s="35"/>
+      <c r="FN4" s="35"/>
+      <c r="FO4" s="35"/>
+      <c r="FP4" s="35"/>
+      <c r="FQ4" s="35"/>
+      <c r="FR4" s="35"/>
+      <c r="FS4" s="35"/>
+      <c r="FT4" s="35"/>
+      <c r="FU4" s="35"/>
+      <c r="FV4" s="35"/>
+      <c r="FW4" s="35"/>
+      <c r="FX4" s="35"/>
+      <c r="FY4" s="35"/>
+      <c r="FZ4" s="35"/>
+      <c r="GA4" s="35"/>
+      <c r="GB4" s="35"/>
+      <c r="GC4" s="35"/>
+      <c r="GD4" s="35"/>
+      <c r="GE4" s="35"/>
+      <c r="GF4" s="35"/>
+      <c r="GG4" s="35"/>
+      <c r="GH4" s="35"/>
+      <c r="GI4" s="35"/>
+      <c r="GJ4" s="35"/>
+      <c r="GK4" s="35"/>
+      <c r="GL4" s="35"/>
+      <c r="GM4" s="35"/>
+      <c r="GN4" s="35"/>
+      <c r="GO4" s="35"/>
+      <c r="GP4" s="35"/>
+      <c r="GQ4" s="35"/>
+      <c r="GR4" s="35"/>
+      <c r="GS4" s="35"/>
+      <c r="GT4" s="35"/>
+      <c r="GU4" s="35"/>
+      <c r="GV4" s="35"/>
+      <c r="GW4" s="35"/>
+      <c r="GX4" s="35"/>
+      <c r="GY4" s="35"/>
+      <c r="GZ4" s="35"/>
+      <c r="HA4" s="35"/>
+      <c r="HB4" s="35"/>
+      <c r="HC4" s="35"/>
+      <c r="HD4" s="35"/>
+      <c r="HE4" s="35"/>
+      <c r="HF4" s="35"/>
+      <c r="HG4" s="35"/>
+      <c r="HH4" s="35"/>
+      <c r="HI4" s="35"/>
+      <c r="HJ4" s="35"/>
+      <c r="HK4" s="35"/>
+      <c r="HL4" s="35"/>
+      <c r="HM4" s="35"/>
+      <c r="HN4" s="35"/>
+      <c r="HO4" s="35"/>
+      <c r="HP4" s="35"/>
+      <c r="HQ4" s="35"/>
+      <c r="HR4" s="35"/>
+      <c r="HS4" s="35"/>
+      <c r="HT4" s="35"/>
+      <c r="HU4" s="35"/>
+      <c r="HV4" s="35"/>
+      <c r="HW4" s="35"/>
+      <c r="HX4" s="35"/>
+      <c r="HY4" s="35"/>
+      <c r="HZ4" s="35"/>
+      <c r="IA4" s="35"/>
+      <c r="IB4" s="35"/>
+      <c r="IC4" s="35"/>
+      <c r="ID4" s="35"/>
+      <c r="IE4" s="35"/>
+      <c r="IF4" s="35"/>
+      <c r="IG4" s="35"/>
+      <c r="IH4" s="35"/>
+      <c r="II4" s="35"/>
+      <c r="IJ4" s="35"/>
+      <c r="IK4" s="35"/>
+      <c r="IL4" s="35"/>
+      <c r="IM4" s="35"/>
+      <c r="IN4" s="35"/>
+      <c r="IO4" s="35"/>
+      <c r="IP4" s="35"/>
+      <c r="IQ4" s="35"/>
+      <c r="IR4" s="35"/>
+      <c r="IS4" s="35"/>
+      <c r="IT4" s="35"/>
+      <c r="IU4" s="35"/>
+      <c r="IV4" s="35"/>
+      <c r="IW4" s="35"/>
+      <c r="IX4" s="35"/>
+      <c r="IY4" s="35"/>
+      <c r="IZ4" s="35"/>
+      <c r="JA4" s="35"/>
+      <c r="JB4" s="35"/>
+      <c r="JC4" s="35"/>
+      <c r="JD4" s="35"/>
+      <c r="JE4" s="35"/>
+      <c r="JF4" s="35"/>
+      <c r="JG4" s="35"/>
+      <c r="JH4" s="35"/>
+      <c r="JI4" s="35"/>
+      <c r="JJ4" s="35"/>
+      <c r="JK4" s="35"/>
+      <c r="JL4" s="35"/>
+      <c r="JM4" s="35"/>
+      <c r="JN4" s="35"/>
+      <c r="JO4" s="35"/>
+      <c r="JP4" s="35"/>
+      <c r="JQ4" s="35"/>
+      <c r="JR4" s="35"/>
+      <c r="JS4" s="35"/>
+      <c r="JT4" s="35"/>
+      <c r="JU4" s="35"/>
+      <c r="JV4" s="35"/>
+      <c r="JW4" s="35"/>
+      <c r="JX4" s="35"/>
+      <c r="JY4" s="35"/>
+      <c r="JZ4" s="35"/>
+      <c r="KA4" s="35"/>
+      <c r="KB4" s="35"/>
+      <c r="KC4" s="35"/>
+      <c r="KD4" s="35"/>
+      <c r="KE4" s="35"/>
+      <c r="KF4" s="35"/>
+      <c r="KG4" s="35"/>
+      <c r="KH4" s="35"/>
+      <c r="KI4" s="35"/>
+      <c r="KJ4" s="35"/>
+      <c r="KK4" s="35"/>
+      <c r="KL4" s="35"/>
+      <c r="KM4" s="35"/>
+      <c r="KN4" s="35"/>
+      <c r="KO4" s="35"/>
+      <c r="KP4" s="35"/>
+      <c r="KQ4" s="35"/>
+      <c r="KR4" s="35"/>
+      <c r="KS4" s="35"/>
+      <c r="KT4" s="35"/>
+      <c r="KU4" s="35"/>
+      <c r="KV4" s="35"/>
+      <c r="KW4" s="35"/>
+      <c r="KX4" s="35"/>
+      <c r="KY4" s="35"/>
+      <c r="KZ4" s="35"/>
+      <c r="LA4" s="35"/>
+      <c r="LB4" s="35"/>
+      <c r="LC4" s="35"/>
+      <c r="LD4" s="35"/>
+      <c r="LE4" s="35"/>
+      <c r="LF4" s="35"/>
+      <c r="LG4" s="35"/>
+      <c r="LH4" s="35"/>
+      <c r="LI4" s="35"/>
+      <c r="LJ4" s="35"/>
+      <c r="LK4" s="35"/>
+      <c r="LL4" s="35"/>
+      <c r="LM4" s="35"/>
+      <c r="LN4" s="35"/>
+      <c r="LO4" s="35"/>
+      <c r="LP4" s="35"/>
+      <c r="LQ4" s="35"/>
+      <c r="LR4" s="35"/>
+      <c r="LS4" s="35"/>
+      <c r="LT4" s="35"/>
+      <c r="LU4" s="35"/>
+      <c r="LV4" s="35"/>
+      <c r="LW4" s="35"/>
+      <c r="LX4" s="35"/>
+      <c r="LY4" s="35"/>
+      <c r="LZ4" s="35"/>
+      <c r="MA4" s="35"/>
+      <c r="MB4" s="35"/>
+      <c r="MC4" s="35"/>
+      <c r="MD4" s="35"/>
+      <c r="ME4" s="35"/>
+      <c r="MF4" s="35"/>
+      <c r="MG4" s="35"/>
+      <c r="MH4" s="35"/>
+      <c r="MI4" s="35"/>
+      <c r="MJ4" s="35"/>
+      <c r="MK4" s="35"/>
+      <c r="ML4" s="35"/>
+      <c r="MM4" s="35"/>
+      <c r="MN4" s="35"/>
+      <c r="MO4" s="35"/>
+      <c r="MP4" s="35"/>
+      <c r="MQ4" s="35"/>
+      <c r="MR4" s="35"/>
+      <c r="MS4" s="35"/>
+      <c r="MT4" s="35"/>
+      <c r="MU4" s="35"/>
+      <c r="MV4" s="35"/>
+      <c r="MW4" s="35"/>
+      <c r="MX4" s="35"/>
+      <c r="MY4" s="35"/>
+      <c r="MZ4" s="35"/>
+      <c r="NA4" s="35"/>
+      <c r="NB4" s="35"/>
+      <c r="NC4" s="35"/>
+      <c r="ND4" s="35"/>
+      <c r="NE4" s="35"/>
+      <c r="NF4" s="35"/>
+      <c r="NG4" s="35"/>
+      <c r="NH4" s="35"/>
+      <c r="NI4" s="35"/>
+      <c r="NJ4" s="35"/>
+      <c r="NK4" s="35"/>
+      <c r="NL4" s="35"/>
+      <c r="NM4" s="35"/>
+      <c r="NN4" s="35"/>
+      <c r="NO4" s="35"/>
+      <c r="NP4" s="35"/>
+      <c r="NQ4" s="35"/>
+      <c r="NR4" s="35"/>
+      <c r="NS4" s="35"/>
+      <c r="NT4" s="35"/>
+      <c r="NU4" s="35"/>
+      <c r="NV4" s="35"/>
+      <c r="NW4" s="35"/>
+      <c r="NX4" s="35"/>
+      <c r="NY4" s="35"/>
+      <c r="NZ4" s="35"/>
+      <c r="OA4" s="35"/>
+      <c r="OB4" s="35"/>
+      <c r="OC4" s="35"/>
+      <c r="OD4" s="35"/>
+      <c r="OE4" s="35"/>
+      <c r="OF4" s="35"/>
+      <c r="OG4" s="35"/>
+      <c r="OH4" s="35"/>
+      <c r="OI4" s="35"/>
+      <c r="OJ4" s="35"/>
+      <c r="OK4" s="35"/>
+      <c r="OL4" s="35"/>
+      <c r="OM4" s="35"/>
+      <c r="ON4" s="35"/>
+      <c r="OO4" s="35"/>
+      <c r="OP4" s="35"/>
+      <c r="OQ4" s="35"/>
+      <c r="OR4" s="35"/>
+      <c r="OS4" s="35"/>
+      <c r="OT4" s="35"/>
+      <c r="OU4" s="35"/>
+      <c r="OV4" s="35"/>
+      <c r="OW4" s="35"/>
+      <c r="OX4" s="35"/>
+      <c r="OY4" s="35"/>
+      <c r="OZ4" s="35"/>
+      <c r="PA4" s="35"/>
+      <c r="PB4" s="35"/>
+      <c r="PC4" s="35"/>
+      <c r="PD4" s="35"/>
+      <c r="PE4" s="35"/>
+      <c r="PF4" s="35"/>
+      <c r="PG4" s="35"/>
+      <c r="PH4" s="35"/>
+      <c r="PI4" s="35"/>
+      <c r="PJ4" s="35"/>
+      <c r="PK4" s="35"/>
+      <c r="PL4" s="35"/>
+      <c r="PM4" s="35"/>
+      <c r="PN4" s="35"/>
+      <c r="PO4" s="35"/>
+      <c r="PP4" s="35"/>
+      <c r="PQ4" s="35"/>
+      <c r="PR4" s="35"/>
+      <c r="PS4" s="35"/>
+      <c r="PT4" s="35"/>
+      <c r="PU4" s="35"/>
+      <c r="PV4" s="35"/>
+      <c r="PW4" s="35"/>
+      <c r="PX4" s="35"/>
+      <c r="PY4" s="35"/>
+      <c r="PZ4" s="35"/>
+      <c r="QA4" s="35"/>
+      <c r="QB4" s="35"/>
+      <c r="QC4" s="35"/>
+      <c r="QD4" s="35"/>
+      <c r="QE4" s="35"/>
+      <c r="QF4" s="35"/>
+      <c r="QG4" s="35"/>
+      <c r="QH4" s="35"/>
+      <c r="QI4" s="35"/>
+      <c r="QJ4" s="35"/>
+      <c r="QK4" s="35"/>
+      <c r="QL4" s="35"/>
+      <c r="QM4" s="35"/>
+      <c r="QN4" s="35"/>
+      <c r="QO4" s="35"/>
+      <c r="QP4" s="35"/>
+      <c r="QQ4" s="35"/>
+      <c r="QR4" s="35"/>
+      <c r="QS4" s="35"/>
+      <c r="QT4" s="35"/>
+      <c r="QU4" s="35"/>
+      <c r="QV4" s="35"/>
+      <c r="QW4" s="35"/>
+      <c r="QX4" s="35"/>
+      <c r="QY4" s="35"/>
+      <c r="QZ4" s="35"/>
+      <c r="RA4" s="35"/>
+      <c r="RB4" s="35"/>
+      <c r="RC4" s="35"/>
+      <c r="RD4" s="35"/>
+      <c r="RE4" s="35"/>
+      <c r="RF4" s="35"/>
+      <c r="RG4" s="35"/>
+      <c r="RH4" s="35"/>
+      <c r="RI4" s="35"/>
+      <c r="RJ4" s="35"/>
+      <c r="RK4" s="35"/>
+      <c r="RL4" s="35"/>
+      <c r="RM4" s="35"/>
+      <c r="RN4" s="35"/>
+      <c r="RO4" s="35"/>
+      <c r="RP4" s="35"/>
+      <c r="RQ4" s="35"/>
+      <c r="RR4" s="35"/>
+      <c r="RS4" s="35"/>
+      <c r="RT4" s="35"/>
+      <c r="RU4" s="35"/>
+      <c r="RV4" s="35"/>
+      <c r="RW4" s="35"/>
+      <c r="RX4" s="35"/>
+      <c r="RY4" s="35"/>
+      <c r="RZ4" s="35"/>
+      <c r="SA4" s="35"/>
+      <c r="SB4" s="35"/>
+      <c r="SC4" s="35"/>
+      <c r="SD4" s="35"/>
+      <c r="SE4" s="35"/>
+      <c r="SF4" s="35"/>
+      <c r="SG4" s="35"/>
+      <c r="SH4" s="35"/>
+      <c r="SI4" s="35"/>
+      <c r="SJ4" s="35"/>
+      <c r="SK4" s="35"/>
+      <c r="SL4" s="35"/>
+      <c r="SM4" s="35"/>
+      <c r="SN4" s="35"/>
+      <c r="SO4" s="35"/>
+      <c r="SP4" s="35"/>
+      <c r="SQ4" s="35"/>
+      <c r="SR4" s="35"/>
+      <c r="SS4" s="35"/>
+      <c r="ST4" s="35"/>
+      <c r="SU4" s="35"/>
+      <c r="SV4" s="35"/>
+      <c r="SW4" s="35"/>
+      <c r="SX4" s="35"/>
+      <c r="SY4" s="35"/>
+      <c r="SZ4" s="35"/>
+      <c r="TA4" s="35"/>
+      <c r="TB4" s="35"/>
+      <c r="TC4" s="35"/>
+      <c r="TD4" s="35"/>
+      <c r="TE4" s="35"/>
+      <c r="TF4" s="35"/>
+      <c r="TG4" s="35"/>
+      <c r="TH4" s="35"/>
+      <c r="TI4" s="35"/>
+      <c r="TJ4" s="35"/>
+      <c r="TK4" s="35"/>
+      <c r="TL4" s="35"/>
+      <c r="TM4" s="35"/>
+      <c r="TN4" s="35"/>
+      <c r="TO4" s="35"/>
+      <c r="TP4" s="35"/>
+      <c r="TQ4" s="35"/>
+      <c r="TR4" s="35"/>
+      <c r="TS4" s="35"/>
+      <c r="TT4" s="35"/>
+      <c r="TU4" s="35"/>
+      <c r="TV4" s="35"/>
+      <c r="TW4" s="35"/>
+      <c r="TX4" s="35"/>
+      <c r="TY4" s="35"/>
+      <c r="TZ4" s="35"/>
+      <c r="UA4" s="35"/>
+      <c r="UB4" s="35"/>
+      <c r="UC4" s="35"/>
+      <c r="UD4" s="35"/>
+      <c r="UE4" s="35"/>
+      <c r="UF4" s="35"/>
+      <c r="UG4" s="35"/>
+      <c r="UH4" s="35"/>
+      <c r="UI4" s="35"/>
+      <c r="UJ4" s="35"/>
+      <c r="UK4" s="35"/>
+      <c r="UL4" s="35"/>
+      <c r="UM4" s="35"/>
+      <c r="UN4" s="35"/>
+      <c r="UO4" s="35"/>
+      <c r="UP4" s="35"/>
+      <c r="UQ4" s="35"/>
+      <c r="UR4" s="35"/>
+      <c r="US4" s="35"/>
+      <c r="UT4" s="35"/>
+      <c r="UU4" s="35"/>
+      <c r="UV4" s="35"/>
+      <c r="UW4" s="35"/>
+      <c r="UX4" s="35"/>
+      <c r="UY4" s="35"/>
+      <c r="UZ4" s="35"/>
+      <c r="VA4" s="35"/>
+      <c r="VB4" s="35"/>
+      <c r="VC4" s="35"/>
+      <c r="VD4" s="35"/>
+      <c r="VE4" s="35"/>
+      <c r="VF4" s="35"/>
+      <c r="VG4" s="35"/>
+      <c r="VH4" s="35"/>
+      <c r="VI4" s="35"/>
+      <c r="VJ4" s="35"/>
+      <c r="VK4" s="35"/>
+      <c r="VL4" s="35"/>
+      <c r="VM4" s="35"/>
+      <c r="VN4" s="35"/>
+      <c r="VO4" s="35"/>
+      <c r="VP4" s="35"/>
+      <c r="VQ4" s="35"/>
+      <c r="VR4" s="35"/>
+      <c r="VS4" s="35"/>
+      <c r="VT4" s="35"/>
+      <c r="VU4" s="35"/>
+      <c r="VV4" s="35"/>
+      <c r="VW4" s="35"/>
+      <c r="VX4" s="35"/>
+      <c r="VY4" s="35"/>
+      <c r="VZ4" s="35"/>
+      <c r="WA4" s="35"/>
+      <c r="WB4" s="35"/>
+      <c r="WC4" s="35"/>
+      <c r="WD4" s="35"/>
+      <c r="WE4" s="35"/>
+      <c r="WF4" s="35"/>
+      <c r="WG4" s="35"/>
+      <c r="WH4" s="35"/>
+      <c r="WI4" s="35"/>
+      <c r="WJ4" s="35"/>
+      <c r="WK4" s="35"/>
+      <c r="WL4" s="35"/>
+      <c r="WM4" s="35"/>
+      <c r="WN4" s="35"/>
+      <c r="WO4" s="35"/>
+      <c r="WP4" s="35"/>
+      <c r="WQ4" s="35"/>
+      <c r="WR4" s="35"/>
+      <c r="WS4" s="35"/>
+      <c r="WT4" s="35"/>
+      <c r="WU4" s="35"/>
+      <c r="WV4" s="35"/>
+      <c r="WW4" s="35"/>
+      <c r="WX4" s="35"/>
+      <c r="WY4" s="35"/>
+      <c r="WZ4" s="35"/>
+      <c r="XA4" s="35"/>
+      <c r="XB4" s="35"/>
+      <c r="XC4" s="35"/>
+      <c r="XD4" s="35"/>
+      <c r="XE4" s="35"/>
+      <c r="XF4" s="35"/>
+      <c r="XG4" s="35"/>
+      <c r="XH4" s="35"/>
+      <c r="XI4" s="35"/>
+      <c r="XJ4" s="35"/>
+      <c r="XK4" s="35"/>
+      <c r="XL4" s="35"/>
+      <c r="XM4" s="35"/>
+      <c r="XN4" s="35"/>
+      <c r="XO4" s="35"/>
+      <c r="XP4" s="35"/>
+      <c r="XQ4" s="35"/>
+      <c r="XR4" s="35"/>
+      <c r="XS4" s="35"/>
+      <c r="XT4" s="35"/>
+      <c r="XU4" s="35"/>
+      <c r="XV4" s="35"/>
+      <c r="XW4" s="35"/>
+      <c r="XX4" s="35"/>
+      <c r="XY4" s="35"/>
+      <c r="XZ4" s="35"/>
+      <c r="YA4" s="35"/>
+      <c r="YB4" s="35"/>
+      <c r="YC4" s="35"/>
+      <c r="YD4" s="35"/>
+      <c r="YE4" s="35"/>
+      <c r="YF4" s="35"/>
+      <c r="YG4" s="35"/>
+      <c r="YH4" s="35"/>
+      <c r="YI4" s="35"/>
+      <c r="YJ4" s="35"/>
+      <c r="YK4" s="35"/>
+      <c r="YL4" s="35"/>
+      <c r="YM4" s="35"/>
+      <c r="YN4" s="35"/>
+      <c r="YO4" s="35"/>
+      <c r="YP4" s="35"/>
+      <c r="YQ4" s="35"/>
+      <c r="YR4" s="35"/>
+      <c r="YS4" s="35"/>
+      <c r="YT4" s="35"/>
+      <c r="YU4" s="35"/>
+      <c r="YV4" s="35"/>
+      <c r="YW4" s="35"/>
+      <c r="YX4" s="35"/>
+      <c r="YY4" s="35"/>
+      <c r="YZ4" s="35"/>
+      <c r="ZA4" s="35"/>
+      <c r="ZB4" s="35"/>
+      <c r="ZC4" s="35"/>
+      <c r="ZD4" s="35"/>
+      <c r="ZE4" s="35"/>
+      <c r="ZF4" s="35"/>
+      <c r="ZG4" s="35"/>
+      <c r="ZH4" s="35"/>
+      <c r="ZI4" s="35"/>
+      <c r="ZJ4" s="35"/>
+      <c r="ZK4" s="35"/>
+      <c r="ZL4" s="35"/>
+      <c r="ZM4" s="35"/>
+      <c r="ZN4" s="35"/>
+      <c r="ZO4" s="35"/>
+      <c r="ZP4" s="35"/>
+      <c r="ZQ4" s="35"/>
+      <c r="ZR4" s="35"/>
+      <c r="ZS4" s="35"/>
+      <c r="ZT4" s="35"/>
+      <c r="ZU4" s="35"/>
+      <c r="ZV4" s="35"/>
+      <c r="ZW4" s="35"/>
+      <c r="ZX4" s="35"/>
+      <c r="ZY4" s="35"/>
+      <c r="ZZ4" s="35"/>
+      <c r="AAA4" s="35"/>
+      <c r="AAB4" s="35"/>
+      <c r="AAC4" s="35"/>
+      <c r="AAD4" s="35"/>
+      <c r="AAE4" s="35"/>
+      <c r="AAF4" s="35"/>
+      <c r="AAG4" s="35"/>
+      <c r="AAH4" s="35"/>
+      <c r="AAI4" s="35"/>
+      <c r="AAJ4" s="35"/>
+      <c r="AAK4" s="35"/>
+      <c r="AAL4" s="35"/>
+      <c r="AAM4" s="35"/>
+      <c r="AAN4" s="35"/>
+      <c r="AAO4" s="35"/>
+      <c r="AAP4" s="35"/>
+      <c r="AAQ4" s="35"/>
+      <c r="AAR4" s="35"/>
+      <c r="AAS4" s="35"/>
+      <c r="AAT4" s="35"/>
+      <c r="AAU4" s="35"/>
+      <c r="AAV4" s="35"/>
+      <c r="AAW4" s="35"/>
+      <c r="AAX4" s="35"/>
+      <c r="AAY4" s="35"/>
+      <c r="AAZ4" s="35"/>
+      <c r="ABA4" s="35"/>
+      <c r="ABB4" s="35"/>
+      <c r="ABC4" s="35"/>
+      <c r="ABD4" s="35"/>
+      <c r="ABE4" s="35"/>
+      <c r="ABF4" s="35"/>
+      <c r="ABG4" s="35"/>
+      <c r="ABH4" s="35"/>
+      <c r="ABI4" s="35"/>
+      <c r="ABJ4" s="35"/>
+      <c r="ABK4" s="35"/>
+      <c r="ABL4" s="35"/>
+      <c r="ABM4" s="35"/>
+      <c r="ABN4" s="35"/>
+      <c r="ABO4" s="35"/>
+      <c r="ABP4" s="35"/>
+      <c r="ABQ4" s="35"/>
+      <c r="ABR4" s="35"/>
+      <c r="ABS4" s="35"/>
+      <c r="ABT4" s="35"/>
+      <c r="ABU4" s="35"/>
+      <c r="ABV4" s="35"/>
+      <c r="ABW4" s="35"/>
+      <c r="ABX4" s="35"/>
+      <c r="ABY4" s="35"/>
+      <c r="ABZ4" s="35"/>
+      <c r="ACA4" s="35"/>
+      <c r="ACB4" s="35"/>
+      <c r="ACC4" s="35"/>
+      <c r="ACD4" s="35"/>
+      <c r="ACE4" s="35"/>
+      <c r="ACF4" s="35"/>
+      <c r="ACG4" s="35"/>
+      <c r="ACH4" s="35"/>
+      <c r="ACI4" s="35"/>
+      <c r="ACJ4" s="35"/>
+      <c r="ACK4" s="35"/>
+      <c r="ACL4" s="35"/>
+      <c r="ACM4" s="35"/>
+      <c r="ACN4" s="35"/>
+      <c r="ACO4" s="35"/>
+      <c r="ACP4" s="35"/>
+      <c r="ACQ4" s="35"/>
+      <c r="ACR4" s="35"/>
+      <c r="ACS4" s="35"/>
+      <c r="ACT4" s="35"/>
+      <c r="ACU4" s="35"/>
+      <c r="ACV4" s="35"/>
+      <c r="ACW4" s="35"/>
+      <c r="ACX4" s="35"/>
+      <c r="ACY4" s="35"/>
+      <c r="ACZ4" s="35"/>
+      <c r="ADA4" s="35"/>
+      <c r="ADB4" s="35"/>
+      <c r="ADC4" s="35"/>
+      <c r="ADD4" s="35"/>
+      <c r="ADE4" s="35"/>
+      <c r="ADF4" s="35"/>
+      <c r="ADG4" s="35"/>
+      <c r="ADH4" s="35"/>
+      <c r="ADI4" s="35"/>
+      <c r="ADJ4" s="35"/>
+      <c r="ADK4" s="35"/>
+      <c r="ADL4" s="35"/>
+      <c r="ADM4" s="35"/>
+      <c r="ADN4" s="35"/>
+      <c r="ADO4" s="35"/>
+      <c r="ADP4" s="35"/>
+      <c r="ADQ4" s="35"/>
+      <c r="ADR4" s="35"/>
+      <c r="ADS4" s="35"/>
+      <c r="ADT4" s="35"/>
+      <c r="ADU4" s="35"/>
+      <c r="ADV4" s="35"/>
+      <c r="ADW4" s="35"/>
+      <c r="ADX4" s="35"/>
+      <c r="ADY4" s="35"/>
+      <c r="ADZ4" s="35"/>
+      <c r="AEA4" s="35"/>
+      <c r="AEB4" s="35"/>
+      <c r="AEC4" s="35"/>
+      <c r="AED4" s="35"/>
+      <c r="AEE4" s="35"/>
+      <c r="AEF4" s="35"/>
+      <c r="AEG4" s="35"/>
+      <c r="AEH4" s="35"/>
+      <c r="AEI4" s="35"/>
+      <c r="AEJ4" s="35"/>
+      <c r="AEK4" s="35"/>
+      <c r="AEL4" s="35"/>
+      <c r="AEM4" s="35"/>
+      <c r="AEN4" s="35"/>
+      <c r="AEO4" s="35"/>
+      <c r="AEP4" s="35"/>
+      <c r="AEQ4" s="35"/>
+      <c r="AER4" s="35"/>
+      <c r="AES4" s="35"/>
+      <c r="AET4" s="35"/>
+      <c r="AEU4" s="35"/>
+      <c r="AEV4" s="35"/>
+      <c r="AEW4" s="35"/>
+      <c r="AEX4" s="35"/>
+      <c r="AEY4" s="35"/>
+      <c r="AEZ4" s="35"/>
+      <c r="AFA4" s="35"/>
+      <c r="AFB4" s="35"/>
+      <c r="AFC4" s="35"/>
+      <c r="AFD4" s="35"/>
+      <c r="AFE4" s="35"/>
+      <c r="AFF4" s="35"/>
+      <c r="AFG4" s="35"/>
+      <c r="AFH4" s="35"/>
+      <c r="AFI4" s="35"/>
+      <c r="AFJ4" s="35"/>
+      <c r="AFK4" s="35"/>
+      <c r="AFL4" s="35"/>
+      <c r="AFM4" s="35"/>
+      <c r="AFN4" s="35"/>
+      <c r="AFO4" s="35"/>
+      <c r="AFP4" s="35"/>
+      <c r="AFQ4" s="35"/>
+      <c r="AFR4" s="35"/>
+      <c r="AFS4" s="35"/>
+      <c r="AFT4" s="35"/>
+      <c r="AFU4" s="35"/>
+      <c r="AFV4" s="35"/>
+      <c r="AFW4" s="35"/>
+      <c r="AFX4" s="35"/>
+      <c r="AFY4" s="35"/>
+      <c r="AFZ4" s="35"/>
+      <c r="AGA4" s="35"/>
+      <c r="AGB4" s="35"/>
+      <c r="AGC4" s="35"/>
+      <c r="AGD4" s="35"/>
+      <c r="AGE4" s="35"/>
+      <c r="AGF4" s="35"/>
+      <c r="AGG4" s="35"/>
+      <c r="AGH4" s="35"/>
+      <c r="AGI4" s="35"/>
+      <c r="AGJ4" s="35"/>
+      <c r="AGK4" s="35"/>
+      <c r="AGL4" s="35"/>
+      <c r="AGM4" s="35"/>
+      <c r="AGN4" s="35"/>
+      <c r="AGO4" s="35"/>
+      <c r="AGP4" s="35"/>
+      <c r="AGQ4" s="35"/>
+      <c r="AGR4" s="35"/>
+      <c r="AGS4" s="35"/>
+      <c r="AGT4" s="35"/>
+      <c r="AGU4" s="35"/>
+      <c r="AGV4" s="35"/>
+      <c r="AGW4" s="35"/>
+      <c r="AGX4" s="35"/>
+      <c r="AGY4" s="35"/>
+      <c r="AGZ4" s="35"/>
+      <c r="AHA4" s="35"/>
+      <c r="AHB4" s="35"/>
+      <c r="AHC4" s="35"/>
+      <c r="AHD4" s="35"/>
+      <c r="AHE4" s="35"/>
+      <c r="AHF4" s="35"/>
+      <c r="AHG4" s="35"/>
+      <c r="AHH4" s="35"/>
+      <c r="AHI4" s="35"/>
+      <c r="AHJ4" s="35"/>
+      <c r="AHK4" s="35"/>
+      <c r="AHL4" s="35"/>
+      <c r="AHM4" s="35"/>
+      <c r="AHN4" s="35"/>
+      <c r="AHO4" s="35"/>
+      <c r="AHP4" s="35"/>
+      <c r="AHQ4" s="35"/>
+      <c r="AHR4" s="35"/>
+      <c r="AHS4" s="35"/>
+      <c r="AHT4" s="35"/>
+      <c r="AHU4" s="35"/>
+      <c r="AHV4" s="35"/>
+      <c r="AHW4" s="35"/>
+      <c r="AHX4" s="35"/>
+      <c r="AHY4" s="35"/>
+      <c r="AHZ4" s="35"/>
+      <c r="AIA4" s="35"/>
+      <c r="AIB4" s="35"/>
+      <c r="AIC4" s="35"/>
+      <c r="AID4" s="35"/>
+      <c r="AIE4" s="35"/>
+      <c r="AIF4" s="35"/>
+      <c r="AIG4" s="35"/>
+      <c r="AIH4" s="35"/>
+      <c r="AII4" s="35"/>
+      <c r="AIJ4" s="35"/>
+      <c r="AIK4" s="35"/>
+      <c r="AIL4" s="35"/>
+      <c r="AIM4" s="35"/>
+      <c r="AIN4" s="35"/>
+      <c r="AIO4" s="35"/>
+      <c r="AIP4" s="35"/>
+      <c r="AIQ4" s="35"/>
+      <c r="AIR4" s="35"/>
+      <c r="AIS4" s="35"/>
+      <c r="AIT4" s="35"/>
+      <c r="AIU4" s="35"/>
+      <c r="AIV4" s="35"/>
+      <c r="AIW4" s="35"/>
+      <c r="AIX4" s="35"/>
+      <c r="AIY4" s="35"/>
+      <c r="AIZ4" s="35"/>
+      <c r="AJA4" s="35"/>
+      <c r="AJB4" s="35"/>
+      <c r="AJC4" s="35"/>
+      <c r="AJD4" s="35"/>
+      <c r="AJE4" s="35"/>
+      <c r="AJF4" s="35"/>
+      <c r="AJG4" s="35"/>
+      <c r="AJH4" s="35"/>
+      <c r="AJI4" s="35"/>
+      <c r="AJJ4" s="35"/>
+      <c r="AJK4" s="35"/>
+      <c r="AJL4" s="35"/>
+      <c r="AJM4" s="35"/>
+      <c r="AJN4" s="35"/>
+      <c r="AJO4" s="35"/>
+      <c r="AJP4" s="35"/>
+      <c r="AJQ4" s="35"/>
+      <c r="AJR4" s="35"/>
+      <c r="AJS4" s="35"/>
+      <c r="AJT4" s="35"/>
+      <c r="AJU4" s="35"/>
+      <c r="AJV4" s="35"/>
+      <c r="AJW4" s="35"/>
+      <c r="AJX4" s="35"/>
+      <c r="AJY4" s="35"/>
+      <c r="AJZ4" s="35"/>
+      <c r="AKA4" s="35"/>
+      <c r="AKB4" s="35"/>
+      <c r="AKC4" s="35"/>
+      <c r="AKD4" s="35"/>
+      <c r="AKE4" s="35"/>
+      <c r="AKF4" s="35"/>
+      <c r="AKG4" s="35"/>
+      <c r="AKH4" s="35"/>
+      <c r="AKI4" s="35"/>
+      <c r="AKJ4" s="35"/>
+      <c r="AKK4" s="35"/>
+      <c r="AKL4" s="35"/>
+      <c r="AKM4" s="35"/>
+      <c r="AKN4" s="35"/>
+      <c r="AKO4" s="35"/>
+      <c r="AKP4" s="35"/>
+      <c r="AKQ4" s="35"/>
+      <c r="AKR4" s="35"/>
+      <c r="AKS4" s="35"/>
+      <c r="AKT4" s="35"/>
+      <c r="AKU4" s="35"/>
+      <c r="AKV4" s="35"/>
+      <c r="AKW4" s="35"/>
+      <c r="AKX4" s="35"/>
+      <c r="AKY4" s="35"/>
+      <c r="AKZ4" s="35"/>
+      <c r="ALA4" s="35"/>
+      <c r="ALB4" s="35"/>
+      <c r="ALC4" s="35"/>
+      <c r="ALD4" s="35"/>
+      <c r="ALE4" s="35"/>
+      <c r="ALF4" s="35"/>
+      <c r="ALG4" s="35"/>
+      <c r="ALH4" s="35"/>
+      <c r="ALI4" s="35"/>
+      <c r="ALJ4" s="35"/>
+      <c r="ALK4" s="35"/>
+      <c r="ALL4" s="35"/>
+      <c r="ALM4" s="35"/>
+      <c r="ALN4" s="35"/>
+      <c r="ALO4" s="35"/>
+      <c r="ALP4" s="35"/>
+      <c r="ALQ4" s="35"/>
+      <c r="ALR4" s="35"/>
+      <c r="ALS4" s="35"/>
+      <c r="ALT4" s="35"/>
+      <c r="ALU4" s="35"/>
+      <c r="ALV4" s="35"/>
+      <c r="ALW4" s="35"/>
+      <c r="ALX4" s="35"/>
+      <c r="ALY4" s="35"/>
+      <c r="ALZ4" s="35"/>
+      <c r="AMA4" s="35"/>
+      <c r="AMB4" s="35"/>
+      <c r="AMC4" s="35"/>
+      <c r="AMD4" s="35"/>
+      <c r="AME4" s="35"/>
+      <c r="AMF4" s="35"/>
+      <c r="AMG4" s="35"/>
+      <c r="AMH4" s="35"/>
+      <c r="AMI4" s="35"/>
+      <c r="AMJ4" s="35"/>
+      <c r="AMK4" s="35"/>
+    </row>
+    <row r="5" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" s="27" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+    <row r="6" spans="1:1025" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="N6" s="74" t="s">
+      <c r="N6" s="66" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="58" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:1025" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="27" t="s">
         <v>131</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+    <row r="10" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="76" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1025" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="O10" s="68" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1025" s="24" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="56" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="28"/>
-    </row>
-    <row r="13" spans="1:1025" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="B12" s="25"/>
+    </row>
+    <row r="13" spans="1:1025" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="56" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:1025" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="27" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1025" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1025" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:1025" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="62" t="s">
         <v>188</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="J18" s="69" t="s">
+      <c r="J18" s="62" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+    <row r="19" spans="1:14" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="N19" s="71" t="s">
+      <c r="N19" s="62" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="27" t="s">
+      <c r="L20" s="24" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="J21" s="44" t="s">
+      <c r="J21" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="61" t="s">
+      <c r="L21" s="55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="27" t="s">
         <v>133</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+    <row r="23" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="27" t="s">
+      <c r="L23" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I25" s="65" t="s">
+      <c r="I25" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="J25" s="47" t="s">
+      <c r="J25" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+    <row r="26" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="78" t="s">
-        <v>198</v>
-      </c>
-      <c r="J26" s="33" t="s">
+      <c r="H26" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="27" t="s">
+      <c r="L26" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="50" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
+    <row r="27" spans="1:14" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="50" t="s">
+      <c r="I27" s="54"/>
+      <c r="J27" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="28"/>
-    </row>
-    <row r="29" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+    </row>
+    <row r="29" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="27" t="s">
         <v>134</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="L29" s="27" t="s">
+      <c r="L29" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="42" t="s">
+      <c r="H31" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="I31" s="64" t="s">
+      <c r="I31" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="J31" s="60" t="s">
+      <c r="J31" s="54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="64" t="s">
+      <c r="I32" s="58" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="27" t="s">
+      <c r="H33" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="L33" s="27" t="s">
+      <c r="L33" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="L34" s="27" t="s">
+      <c r="L34" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49" t="s">
+    <row r="35" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="J35" s="60" t="s">
+      <c r="J35" s="54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="28"/>
-    </row>
-    <row r="37" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+      <c r="B36" s="25"/>
+    </row>
+    <row r="37" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="J37" s="60" t="s">
+      <c r="J37" s="54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="H38" s="27" t="s">
+      <c r="H38" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="67" t="s">
+      <c r="I38" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="L38" s="27" t="s">
+      <c r="L38" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:15" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="O39" s="38" t="s">
+      <c r="G39" s="31"/>
+      <c r="O39" s="33" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="27" t="s">
+      <c r="J40" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L40" s="27" t="s">
+      <c r="L40" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="M40" s="37" t="s">
+      <c r="M40" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+    <row r="41" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="27" t="s">
+      <c r="J41" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="27" t="s">
+      <c r="L41" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="M41" s="37" t="s">
+      <c r="M41" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="35" t="s">
+    <row r="42" spans="1:15" s="24" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="35"/>
-      <c r="O42" s="38" t="s">
+      <c r="G42" s="31"/>
+      <c r="O42" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="48" t="s">
+      <c r="C43" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="J43" s="27" t="s">
+      <c r="J43" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="M43" s="37" t="s">
+      <c r="M43" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="27" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="27" t="s">
+    <row r="44" spans="1:15" s="24" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="J44" s="43" t="s">
+      <c r="J44" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M44" s="37" t="s">
+      <c r="M44" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="27" t="s">
+    <row r="45" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H45" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I45" s="36" t="s">
+      <c r="I45" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="L45" s="27" t="s">
+      <c r="L45" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="35" t="s">
+    <row r="46" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="I46" s="36" t="s">
+      <c r="I46" s="31" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="28"/>
-    </row>
-    <row r="49" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="28"/>
-    </row>
-    <row r="50" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="28"/>
-    </row>
-    <row r="51" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="28"/>
-    </row>
-    <row r="52" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="28"/>
-    </row>
-    <row r="53" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="28"/>
-    </row>
-    <row r="54" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="28"/>
-    </row>
-    <row r="55" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="28"/>
-    </row>
-    <row r="56" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="28"/>
-    </row>
-    <row r="57" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="28"/>
-    </row>
-    <row r="58" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="28"/>
-    </row>
-    <row r="59" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="28"/>
-    </row>
-    <row r="60" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="28"/>
-    </row>
-    <row r="61" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="28"/>
-    </row>
-    <row r="62" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="28"/>
-    </row>
-    <row r="63" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="28"/>
-    </row>
-    <row r="64" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="28"/>
-    </row>
-    <row r="65" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="28"/>
-    </row>
-    <row r="66" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="28"/>
-    </row>
-    <row r="67" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="28"/>
-    </row>
-    <row r="68" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="28"/>
-    </row>
-    <row r="69" spans="2:2" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="28"/>
+    <row r="48" spans="1:15" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="25"/>
+    </row>
+    <row r="49" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="25"/>
+    </row>
+    <row r="50" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="25"/>
+    </row>
+    <row r="51" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="25"/>
+    </row>
+    <row r="52" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="25"/>
+    </row>
+    <row r="53" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="25"/>
+    </row>
+    <row r="54" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="25"/>
+    </row>
+    <row r="55" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="25"/>
+    </row>
+    <row r="56" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="25"/>
+    </row>
+    <row r="57" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="25"/>
+    </row>
+    <row r="58" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="25"/>
+    </row>
+    <row r="59" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="25"/>
+    </row>
+    <row r="60" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="25"/>
+    </row>
+    <row r="61" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="25"/>
+    </row>
+    <row r="62" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="25"/>
+    </row>
+    <row r="63" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="25"/>
+    </row>
+    <row r="64" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="25"/>
+    </row>
+    <row r="65" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="25"/>
+    </row>
+    <row r="66" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="25"/>
+    </row>
+    <row r="67" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="25"/>
+    </row>
+    <row r="68" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="25"/>
+    </row>
+    <row r="69" spans="2:2" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3801,157 +3784,157 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="30" style="11" customWidth="1"/>
-    <col min="3" max="3" width="46.3984375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.8984375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.8984375" style="5"/>
-    <col min="7" max="16384" width="10.8984375" style="7"/>
+    <col min="1" max="1" width="12.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="30" style="9" customWidth="1"/>
+    <col min="3" max="3" width="46.3984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.8984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" style="4"/>
+    <col min="7" max="16384" width="10.8984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="10"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="16"/>
+      <c r="C14" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F2" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -3970,4765 +3953,4765 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" style="52" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="52"/>
-    <col min="6" max="6" width="34.8984375" style="52" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="52"/>
+    <col min="1" max="1" width="23" style="46" customWidth="1"/>
+    <col min="2" max="2" width="26.09765625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="46"/>
+    <col min="6" max="6" width="34.8984375" style="46" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="46" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52" t="s">
+      <c r="A35" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="52" t="s">
+      <c r="A39" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="52" t="s">
+      <c r="A44" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="52" t="s">
+      <c r="A55" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="52" t="s">
+      <c r="A59" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="52" t="s">
+      <c r="A67" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="52" t="s">
+      <c r="A69" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="52" t="s">
+      <c r="A75" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="52" t="s">
+      <c r="A76" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="52" t="s">
+      <c r="A77" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="52" t="s">
+      <c r="A78" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="52" t="s">
+      <c r="A80" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="52" t="s">
+      <c r="A82" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="52" t="s">
+      <c r="A83" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="52" t="s">
+      <c r="A84" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="52" t="s">
+      <c r="A88" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="52" t="s">
+      <c r="A89" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="52" t="s">
+      <c r="A90" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="52" t="s">
+      <c r="A91" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="52" t="s">
+      <c r="A92" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="52" t="s">
+      <c r="A93" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="52" t="s">
+      <c r="A94" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="52" t="s">
+      <c r="A95" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="52" t="s">
+      <c r="A96" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="52" t="s">
+      <c r="A97" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="52" t="s">
+      <c r="A98" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="52" t="s">
+      <c r="A99" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="52" t="s">
+      <c r="A100" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="52" t="s">
+      <c r="A101" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="52" t="s">
+      <c r="A102" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="52" t="s">
+      <c r="A103" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" s="52" t="s">
+      <c r="A104" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" s="52" t="s">
+      <c r="A105" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" s="52" t="s">
+      <c r="A106" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="52" t="s">
+      <c r="A107" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" s="52" t="s">
+      <c r="A108" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="52" t="s">
+      <c r="A110" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="52" t="s">
+      <c r="A111" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="52" t="s">
+      <c r="A112" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="52" t="s">
+      <c r="A113" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="52" t="s">
+      <c r="A114" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="52" t="s">
+      <c r="A115" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="52" t="s">
+      <c r="A116" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="52" t="s">
+      <c r="A117" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="52" t="s">
+      <c r="A118" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="52" t="s">
+      <c r="A119" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="52" t="s">
+      <c r="A120" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="52" t="s">
+      <c r="A121" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="52" t="s">
+      <c r="A122" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="52" t="s">
+      <c r="A128" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="52" t="s">
+      <c r="A129" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="52" t="s">
+      <c r="A130" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="52" t="s">
+      <c r="A131" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="52" t="s">
+      <c r="A132" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="52" t="s">
+      <c r="A133" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="52" t="s">
+      <c r="A134" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="52" t="s">
+      <c r="A135" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="52" t="s">
+      <c r="A138" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="52" t="s">
+      <c r="A140" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="52" t="s">
+      <c r="A141" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="52" t="s">
+      <c r="A142" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="52" t="s">
+      <c r="A143" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="52" t="s">
+      <c r="A144" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="52" t="s">
+      <c r="A145" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="52" t="s">
+      <c r="A146" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="52" t="s">
+      <c r="A147" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="52" t="s">
+      <c r="A148" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="52" t="s">
+      <c r="A149" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="52" t="s">
+      <c r="A150" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="52" t="s">
+      <c r="A151" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="52" t="s">
+      <c r="A152" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="52" t="s">
+      <c r="A153" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="52" t="s">
+      <c r="A154" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="52" t="s">
+      <c r="A155" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="52" t="s">
+      <c r="A156" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="52" t="s">
+      <c r="A157" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="52" t="s">
+      <c r="A158" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="52" t="s">
+      <c r="A159" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="52" t="s">
+      <c r="A160" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="52" t="s">
+      <c r="A161" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="52" t="s">
+      <c r="A162" s="46" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="52" t="s">
+      <c r="A164" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="52" t="s">
+      <c r="A165" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="52" t="s">
+      <c r="A166" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="52" t="s">
+      <c r="A167" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="52" t="s">
+      <c r="A168" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="52" t="s">
+      <c r="A169" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="52" t="s">
+      <c r="A170" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="52" t="s">
+      <c r="A171" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="52" t="s">
+      <c r="A172" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="52" t="s">
+      <c r="A173" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="52" t="s">
+      <c r="A174" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="52" t="s">
+      <c r="A175" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="52" t="s">
+      <c r="A176" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="52" t="s">
+      <c r="A177" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="52" t="s">
+      <c r="A178" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="52" t="s">
+      <c r="A179" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="52" t="s">
+      <c r="A180" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="52" t="s">
+      <c r="A181" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="52" t="s">
+      <c r="A182" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="52" t="s">
+      <c r="A183" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="52" t="s">
+      <c r="A184" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="52" t="s">
+      <c r="A185" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="52" t="s">
+      <c r="A186" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="52" t="s">
+      <c r="A187" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="52" t="s">
+      <c r="A188" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="52" t="s">
+      <c r="A189" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="52" t="s">
+      <c r="A190" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="52" t="s">
+      <c r="A191" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="52" t="s">
+      <c r="A192" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="52" t="s">
+      <c r="A193" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="52" t="s">
+      <c r="A194" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="52" t="s">
+      <c r="A195" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="52" t="s">
+      <c r="A196" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="52" t="s">
+      <c r="A197" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="52" t="s">
+      <c r="A198" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="52" t="s">
+      <c r="A199" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="52" t="s">
+      <c r="A200" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="52" t="s">
+      <c r="A201" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="52" t="s">
+      <c r="A202" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="52" t="s">
+      <c r="A203" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="52" t="s">
+      <c r="A204" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="52" t="s">
+      <c r="A205" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="52" t="s">
+      <c r="A206" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="52" t="s">
+      <c r="A207" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="52" t="s">
+      <c r="A208" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="52" t="s">
+      <c r="A209" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="52" t="s">
+      <c r="A210" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="52" t="s">
+      <c r="A211" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="52" t="s">
+      <c r="A212" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="52" t="s">
+      <c r="A213" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="52" t="s">
+      <c r="A214" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="52" t="s">
+      <c r="A215" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="52" t="s">
+      <c r="A216" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="52" t="s">
+      <c r="A217" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="52" t="s">
+      <c r="A218" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="52" t="s">
+      <c r="A219" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="52" t="s">
+      <c r="A220" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="52" t="s">
+      <c r="A221" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="52" t="s">
+      <c r="A222" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="52" t="s">
+      <c r="A223" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="52" t="s">
+      <c r="A224" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="52" t="s">
+      <c r="A225" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="52" t="s">
+      <c r="A226" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="52" t="s">
+      <c r="A227" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="52" t="s">
+      <c r="A228" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="52" t="s">
+      <c r="A229" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="52" t="s">
+      <c r="A230" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="52" t="s">
+      <c r="A231" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="52" t="s">
+      <c r="A232" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="52" t="s">
+      <c r="A233" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="52" t="s">
+      <c r="A234" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="52" t="s">
+      <c r="A235" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="52" t="s">
+      <c r="A236" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="52" t="s">
+      <c r="A237" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="52" t="s">
+      <c r="A238" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="52" t="s">
+      <c r="A239" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="52" t="s">
+      <c r="A240" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="52" t="s">
+      <c r="A241" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="52" t="s">
+      <c r="A242" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="52" t="s">
+      <c r="A243" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="52" t="s">
+      <c r="A244" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="52" t="s">
+      <c r="A245" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="52" t="s">
+      <c r="A246" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="52" t="s">
+      <c r="A247" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="52" t="s">
+      <c r="A248" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="52" t="s">
+      <c r="A249" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="52" t="s">
+      <c r="A250" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="52" t="s">
+      <c r="A251" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="52" t="s">
+      <c r="A252" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="52" t="s">
+      <c r="A253" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="52" t="s">
+      <c r="A254" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="52" t="s">
+      <c r="A255" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="52" t="s">
+      <c r="A256" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="52" t="s">
+      <c r="A257" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="52" t="s">
+      <c r="A258" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="52" t="s">
+      <c r="A259" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="52" t="s">
+      <c r="A260" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="52" t="s">
+      <c r="A261" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="52" t="s">
+      <c r="A262" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="52" t="s">
+      <c r="A263" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="52" t="s">
+      <c r="A264" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="52" t="s">
+      <c r="A265" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="52" t="s">
+      <c r="A266" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="52" t="s">
+      <c r="A267" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="52" t="s">
+      <c r="A268" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="52" t="s">
+      <c r="A269" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="52" t="s">
+      <c r="A270" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="52" t="s">
+      <c r="A271" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="52" t="s">
+      <c r="A272" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="52" t="s">
+      <c r="A273" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="52" t="s">
+      <c r="A274" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="52" t="s">
+      <c r="A275" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="52" t="s">
+      <c r="A276" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="52" t="s">
+      <c r="A277" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="52" t="s">
+      <c r="A278" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="52" t="s">
+      <c r="A279" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="52" t="s">
+      <c r="A280" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" s="52" t="s">
+      <c r="A281" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" s="52" t="s">
+      <c r="A282" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" s="52" t="s">
+      <c r="A283" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" s="52" t="s">
+      <c r="A284" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" s="52" t="s">
+      <c r="A285" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" s="52" t="s">
+      <c r="A286" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" s="52" t="s">
+      <c r="A287" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" s="52" t="s">
+      <c r="A288" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="52" t="s">
+      <c r="A289" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="52" t="s">
+      <c r="A290" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="52" t="s">
+      <c r="A291" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" s="52" t="s">
+      <c r="A292" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" s="52" t="s">
+      <c r="A293" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" s="52" t="s">
+      <c r="A294" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" s="52" t="s">
+      <c r="A295" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" s="52" t="s">
+      <c r="A296" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" s="52" t="s">
+      <c r="A297" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" s="52" t="s">
+      <c r="A298" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" s="52" t="s">
+      <c r="A299" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" s="52" t="s">
+      <c r="A300" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="52" t="s">
+      <c r="A301" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" s="52" t="s">
+      <c r="A302" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" s="52" t="s">
+      <c r="A303" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" s="52" t="s">
+      <c r="A304" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="52" t="s">
+      <c r="A305" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="52" t="s">
+      <c r="A306" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="52" t="s">
+      <c r="A307" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="52" t="s">
+      <c r="A308" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="52" t="s">
+      <c r="A309" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="52" t="s">
+      <c r="A310" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" s="52" t="s">
+      <c r="A311" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" s="52" t="s">
+      <c r="A312" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" s="52" t="s">
+      <c r="A313" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" s="52" t="s">
+      <c r="A314" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" s="52" t="s">
+      <c r="A315" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" s="52" t="s">
+      <c r="A316" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" s="52" t="s">
+      <c r="A317" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" s="52" t="s">
+      <c r="A318" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" s="52" t="s">
+      <c r="A319" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" s="52" t="s">
+      <c r="A320" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="52" t="s">
+      <c r="A321" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="52" t="s">
+      <c r="A322" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="52" t="s">
+      <c r="A323" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="52" t="s">
+      <c r="A324" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="52" t="s">
+      <c r="A325" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="52" t="s">
+      <c r="A326" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="52" t="s">
+      <c r="A327" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="52" t="s">
+      <c r="A328" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="52" t="s">
+      <c r="A329" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="52" t="s">
+      <c r="A330" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="52" t="s">
+      <c r="A331" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B332" s="53"/>
-      <c r="C332" s="53"/>
-      <c r="D332" s="53"/>
-      <c r="E332" s="53"/>
+      <c r="A332" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B332" s="47"/>
+      <c r="C332" s="47"/>
+      <c r="D332" s="47"/>
+      <c r="E332" s="47"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B333" s="53"/>
-      <c r="C333" s="53"/>
-      <c r="D333" s="53"/>
-      <c r="E333" s="53"/>
+      <c r="A333" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B333" s="47"/>
+      <c r="C333" s="47"/>
+      <c r="D333" s="47"/>
+      <c r="E333" s="47"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B334" s="53"/>
-      <c r="C334" s="53"/>
-      <c r="D334" s="53"/>
-      <c r="E334" s="53"/>
+      <c r="A334" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B334" s="47"/>
+      <c r="C334" s="47"/>
+      <c r="D334" s="47"/>
+      <c r="E334" s="47"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B335" s="53"/>
-      <c r="C335" s="53"/>
-      <c r="D335" s="53"/>
-      <c r="E335" s="53"/>
+      <c r="A335" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B335" s="47"/>
+      <c r="C335" s="47"/>
+      <c r="D335" s="47"/>
+      <c r="E335" s="47"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B336" s="53"/>
-      <c r="C336" s="53"/>
-      <c r="D336" s="53"/>
-      <c r="E336" s="53"/>
+      <c r="A336" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B336" s="47"/>
+      <c r="C336" s="47"/>
+      <c r="D336" s="47"/>
+      <c r="E336" s="47"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B337" s="53"/>
-      <c r="C337" s="53"/>
-      <c r="D337" s="53"/>
-      <c r="E337" s="53"/>
+      <c r="A337" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B337" s="47"/>
+      <c r="C337" s="47"/>
+      <c r="D337" s="47"/>
+      <c r="E337" s="47"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B338" s="53"/>
-      <c r="C338" s="53"/>
-      <c r="D338" s="53"/>
-      <c r="E338" s="53"/>
+      <c r="A338" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B338" s="47"/>
+      <c r="C338" s="47"/>
+      <c r="D338" s="47"/>
+      <c r="E338" s="47"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B339" s="53"/>
-      <c r="C339" s="53"/>
-      <c r="D339" s="53"/>
-      <c r="E339" s="53"/>
+      <c r="A339" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B339" s="47"/>
+      <c r="C339" s="47"/>
+      <c r="D339" s="47"/>
+      <c r="E339" s="47"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B340" s="53"/>
-      <c r="C340" s="53"/>
-      <c r="D340" s="53"/>
-      <c r="E340" s="53"/>
+      <c r="A340" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B340" s="47"/>
+      <c r="C340" s="47"/>
+      <c r="D340" s="47"/>
+      <c r="E340" s="47"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B341" s="53"/>
-      <c r="C341" s="53"/>
-      <c r="D341" s="53"/>
-      <c r="E341" s="53"/>
+      <c r="A341" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B341" s="47"/>
+      <c r="C341" s="47"/>
+      <c r="D341" s="47"/>
+      <c r="E341" s="47"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B342" s="53"/>
-      <c r="C342" s="53"/>
-      <c r="D342" s="53"/>
-      <c r="E342" s="53"/>
+      <c r="A342" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B342" s="47"/>
+      <c r="C342" s="47"/>
+      <c r="D342" s="47"/>
+      <c r="E342" s="47"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B343" s="53"/>
-      <c r="C343" s="53"/>
-      <c r="D343" s="53"/>
-      <c r="E343" s="53"/>
+      <c r="A343" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B343" s="47"/>
+      <c r="C343" s="47"/>
+      <c r="D343" s="47"/>
+      <c r="E343" s="47"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B344" s="53"/>
-      <c r="C344" s="53"/>
-      <c r="D344" s="53"/>
-      <c r="E344" s="53"/>
+      <c r="A344" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B344" s="47"/>
+      <c r="C344" s="47"/>
+      <c r="D344" s="47"/>
+      <c r="E344" s="47"/>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B345" s="53"/>
-      <c r="C345" s="53"/>
-      <c r="D345" s="53"/>
-      <c r="E345" s="53"/>
+      <c r="A345" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B345" s="47"/>
+      <c r="C345" s="47"/>
+      <c r="D345" s="47"/>
+      <c r="E345" s="47"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B346" s="53"/>
-      <c r="C346" s="53"/>
-      <c r="D346" s="53"/>
-      <c r="E346" s="53"/>
+      <c r="A346" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B346" s="47"/>
+      <c r="C346" s="47"/>
+      <c r="D346" s="47"/>
+      <c r="E346" s="47"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B347" s="53"/>
-      <c r="C347" s="53"/>
-      <c r="D347" s="53"/>
-      <c r="E347" s="53"/>
+      <c r="A347" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B347" s="47"/>
+      <c r="C347" s="47"/>
+      <c r="D347" s="47"/>
+      <c r="E347" s="47"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B348" s="53"/>
-      <c r="C348" s="53"/>
-      <c r="D348" s="53"/>
-      <c r="E348" s="53"/>
+      <c r="A348" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B348" s="47"/>
+      <c r="C348" s="47"/>
+      <c r="D348" s="47"/>
+      <c r="E348" s="47"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B349" s="53"/>
-      <c r="C349" s="53"/>
-      <c r="D349" s="53"/>
-      <c r="E349" s="53"/>
+      <c r="A349" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B349" s="47"/>
+      <c r="C349" s="47"/>
+      <c r="D349" s="47"/>
+      <c r="E349" s="47"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B350" s="53"/>
-      <c r="C350" s="53"/>
-      <c r="D350" s="53"/>
-      <c r="E350" s="53"/>
+      <c r="A350" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B350" s="47"/>
+      <c r="C350" s="47"/>
+      <c r="D350" s="47"/>
+      <c r="E350" s="47"/>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B351" s="53"/>
-      <c r="C351" s="53"/>
-      <c r="D351" s="53"/>
-      <c r="E351" s="53"/>
+      <c r="A351" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B351" s="47"/>
+      <c r="C351" s="47"/>
+      <c r="D351" s="47"/>
+      <c r="E351" s="47"/>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B352" s="53"/>
-      <c r="C352" s="53"/>
-      <c r="D352" s="53"/>
-      <c r="E352" s="53"/>
+      <c r="A352" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B352" s="47"/>
+      <c r="C352" s="47"/>
+      <c r="D352" s="47"/>
+      <c r="E352" s="47"/>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B353" s="53"/>
-      <c r="C353" s="53"/>
-      <c r="D353" s="53"/>
-      <c r="E353" s="53"/>
+      <c r="A353" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B353" s="47"/>
+      <c r="C353" s="47"/>
+      <c r="D353" s="47"/>
+      <c r="E353" s="47"/>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B354" s="53"/>
-      <c r="C354" s="53"/>
-      <c r="D354" s="53"/>
-      <c r="E354" s="53"/>
+      <c r="A354" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B354" s="47"/>
+      <c r="C354" s="47"/>
+      <c r="D354" s="47"/>
+      <c r="E354" s="47"/>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B355" s="53"/>
-      <c r="C355" s="53"/>
-      <c r="D355" s="53"/>
-      <c r="E355" s="53"/>
+      <c r="A355" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B355" s="47"/>
+      <c r="C355" s="47"/>
+      <c r="D355" s="47"/>
+      <c r="E355" s="47"/>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B356" s="53"/>
-      <c r="C356" s="53"/>
-      <c r="D356" s="53"/>
-      <c r="E356" s="53"/>
+      <c r="A356" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B356" s="47"/>
+      <c r="C356" s="47"/>
+      <c r="D356" s="47"/>
+      <c r="E356" s="47"/>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B357" s="53"/>
-      <c r="C357" s="53"/>
-      <c r="D357" s="53"/>
-      <c r="E357" s="53"/>
+      <c r="A357" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B357" s="47"/>
+      <c r="C357" s="47"/>
+      <c r="D357" s="47"/>
+      <c r="E357" s="47"/>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B358" s="53"/>
-      <c r="C358" s="53"/>
-      <c r="D358" s="53"/>
-      <c r="E358" s="53"/>
+      <c r="A358" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B358" s="47"/>
+      <c r="C358" s="47"/>
+      <c r="D358" s="47"/>
+      <c r="E358" s="47"/>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B359" s="53"/>
-      <c r="C359" s="53"/>
-      <c r="D359" s="53"/>
-      <c r="E359" s="53"/>
+      <c r="A359" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B359" s="47"/>
+      <c r="C359" s="47"/>
+      <c r="D359" s="47"/>
+      <c r="E359" s="47"/>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B360" s="53"/>
-      <c r="C360" s="53"/>
-      <c r="D360" s="53"/>
-      <c r="E360" s="53"/>
+      <c r="A360" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B360" s="47"/>
+      <c r="C360" s="47"/>
+      <c r="D360" s="47"/>
+      <c r="E360" s="47"/>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B361" s="53"/>
-      <c r="C361" s="53"/>
-      <c r="D361" s="53"/>
-      <c r="E361" s="53"/>
+      <c r="A361" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B361" s="47"/>
+      <c r="C361" s="47"/>
+      <c r="D361" s="47"/>
+      <c r="E361" s="47"/>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B362" s="53"/>
-      <c r="C362" s="53"/>
-      <c r="D362" s="53"/>
-      <c r="E362" s="53"/>
+      <c r="A362" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B362" s="47"/>
+      <c r="C362" s="47"/>
+      <c r="D362" s="47"/>
+      <c r="E362" s="47"/>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B363" s="53"/>
-      <c r="C363" s="53"/>
-      <c r="D363" s="53"/>
-      <c r="E363" s="53"/>
+      <c r="A363" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B363" s="47"/>
+      <c r="C363" s="47"/>
+      <c r="D363" s="47"/>
+      <c r="E363" s="47"/>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B364" s="53"/>
-      <c r="C364" s="53"/>
-      <c r="D364" s="53"/>
-      <c r="E364" s="53"/>
+      <c r="A364" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B364" s="47"/>
+      <c r="C364" s="47"/>
+      <c r="D364" s="47"/>
+      <c r="E364" s="47"/>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B365" s="53"/>
-      <c r="C365" s="53"/>
-      <c r="D365" s="53"/>
-      <c r="E365" s="53"/>
+      <c r="A365" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B365" s="47"/>
+      <c r="C365" s="47"/>
+      <c r="D365" s="47"/>
+      <c r="E365" s="47"/>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B366" s="53"/>
-      <c r="C366" s="53"/>
-      <c r="D366" s="53"/>
-      <c r="E366" s="53"/>
+      <c r="A366" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B366" s="47"/>
+      <c r="C366" s="47"/>
+      <c r="D366" s="47"/>
+      <c r="E366" s="47"/>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B367" s="53"/>
-      <c r="C367" s="53"/>
-      <c r="D367" s="53"/>
-      <c r="E367" s="53"/>
+      <c r="A367" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B367" s="47"/>
+      <c r="C367" s="47"/>
+      <c r="D367" s="47"/>
+      <c r="E367" s="47"/>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B368" s="53"/>
-      <c r="C368" s="53"/>
-      <c r="D368" s="53"/>
-      <c r="E368" s="53"/>
+      <c r="A368" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B368" s="47"/>
+      <c r="C368" s="47"/>
+      <c r="D368" s="47"/>
+      <c r="E368" s="47"/>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B369" s="53"/>
-      <c r="C369" s="53"/>
-      <c r="D369" s="53"/>
-      <c r="E369" s="53"/>
+      <c r="A369" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B369" s="47"/>
+      <c r="C369" s="47"/>
+      <c r="D369" s="47"/>
+      <c r="E369" s="47"/>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B370" s="53"/>
-      <c r="C370" s="53"/>
-      <c r="D370" s="53"/>
-      <c r="E370" s="53"/>
+      <c r="A370" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B370" s="47"/>
+      <c r="C370" s="47"/>
+      <c r="D370" s="47"/>
+      <c r="E370" s="47"/>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B371" s="53"/>
-      <c r="C371" s="53"/>
-      <c r="D371" s="53"/>
-      <c r="E371" s="53"/>
+      <c r="A371" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B371" s="47"/>
+      <c r="C371" s="47"/>
+      <c r="D371" s="47"/>
+      <c r="E371" s="47"/>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B372" s="53"/>
-      <c r="C372" s="53"/>
-      <c r="D372" s="53"/>
-      <c r="E372" s="53"/>
+      <c r="A372" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B372" s="47"/>
+      <c r="C372" s="47"/>
+      <c r="D372" s="47"/>
+      <c r="E372" s="47"/>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A373" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B373" s="53"/>
-      <c r="C373" s="53"/>
-      <c r="D373" s="53"/>
-      <c r="E373" s="53"/>
+      <c r="A373" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B373" s="47"/>
+      <c r="C373" s="47"/>
+      <c r="D373" s="47"/>
+      <c r="E373" s="47"/>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A374" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B374" s="53"/>
-      <c r="C374" s="53"/>
-      <c r="D374" s="53"/>
-      <c r="E374" s="53"/>
+      <c r="A374" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B374" s="47"/>
+      <c r="C374" s="47"/>
+      <c r="D374" s="47"/>
+      <c r="E374" s="47"/>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A375" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B375" s="53"/>
-      <c r="C375" s="53"/>
-      <c r="D375" s="53"/>
-      <c r="E375" s="53"/>
+      <c r="A375" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B375" s="47"/>
+      <c r="C375" s="47"/>
+      <c r="D375" s="47"/>
+      <c r="E375" s="47"/>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A376" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B376" s="53"/>
-      <c r="C376" s="53"/>
-      <c r="D376" s="53"/>
-      <c r="E376" s="53"/>
+      <c r="A376" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B376" s="47"/>
+      <c r="C376" s="47"/>
+      <c r="D376" s="47"/>
+      <c r="E376" s="47"/>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A377" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B377" s="53"/>
-      <c r="C377" s="53"/>
-      <c r="D377" s="53"/>
-      <c r="E377" s="53"/>
+      <c r="A377" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B377" s="47"/>
+      <c r="C377" s="47"/>
+      <c r="D377" s="47"/>
+      <c r="E377" s="47"/>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A378" s="52" t="s">
+      <c r="A378" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A379" s="52" t="s">
+      <c r="A379" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" s="52" t="s">
+      <c r="A380" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" s="52" t="s">
+      <c r="A381" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A382" s="52" t="s">
+      <c r="A382" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" s="52" t="s">
+      <c r="A383" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384" s="52" t="s">
+      <c r="A384" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385" s="52" t="s">
+      <c r="A385" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" s="52" t="s">
+      <c r="A386" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" s="52" t="s">
+      <c r="A387" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" s="52" t="s">
+      <c r="A388" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" s="52" t="s">
+      <c r="A389" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" s="52" t="s">
+      <c r="A390" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" s="52" t="s">
+      <c r="A391" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" s="52" t="s">
+      <c r="A392" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" s="52" t="s">
+      <c r="A393" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" s="52" t="s">
+      <c r="A394" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" s="52" t="s">
+      <c r="A395" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" s="52" t="s">
+      <c r="A396" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" s="52" t="s">
+      <c r="A397" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" s="52" t="s">
+      <c r="A398" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" s="52" t="s">
+      <c r="A399" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" s="52" t="s">
+      <c r="A400" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" s="52" t="s">
+      <c r="A401" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" s="52" t="s">
+      <c r="A402" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" s="52" t="s">
+      <c r="A403" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" s="52" t="s">
+      <c r="A404" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" s="52" t="s">
+      <c r="A405" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" s="52" t="s">
+      <c r="A406" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" s="52" t="s">
+      <c r="A407" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" s="52" t="s">
+      <c r="A408" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" s="52" t="s">
+      <c r="A409" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" s="52" t="s">
+      <c r="A410" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" s="52" t="s">
+      <c r="A411" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" s="52" t="s">
+      <c r="A412" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" s="52" t="s">
+      <c r="A413" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" s="52" t="s">
+      <c r="A414" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" s="52" t="s">
+      <c r="A415" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" s="52" t="s">
+      <c r="A416" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" s="52" t="s">
+      <c r="A417" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" s="52" t="s">
+      <c r="A418" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" s="52" t="s">
+      <c r="A419" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" s="52" t="s">
+      <c r="A420" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" s="52" t="s">
+      <c r="A421" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" s="52" t="s">
+      <c r="A422" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" s="52" t="s">
+      <c r="A423" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" s="52" t="s">
+      <c r="A424" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" s="52" t="s">
+      <c r="A425" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" s="52" t="s">
+      <c r="A426" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" s="52" t="s">
+      <c r="A427" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428" s="52" t="s">
+      <c r="A428" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429" s="52" t="s">
+      <c r="A429" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430" s="52" t="s">
+      <c r="A430" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431" s="52" t="s">
+      <c r="A431" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432" s="52" t="s">
+      <c r="A432" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433" s="52" t="s">
+      <c r="A433" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434" s="52" t="s">
+      <c r="A434" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" s="52" t="s">
+      <c r="A435" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436" s="52" t="s">
+      <c r="A436" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" s="52" t="s">
+      <c r="A437" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438" s="52" t="s">
+      <c r="A438" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439" s="52" t="s">
+      <c r="A439" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440" s="52" t="s">
+      <c r="A440" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441" s="52" t="s">
+      <c r="A441" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442" s="52" t="s">
+      <c r="A442" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443" s="52" t="s">
+      <c r="A443" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444" s="52" t="s">
+      <c r="A444" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445" s="52" t="s">
+      <c r="A445" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446" s="52" t="s">
+      <c r="A446" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447" s="52" t="s">
+      <c r="A447" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448" s="52" t="s">
+      <c r="A448" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" s="52" t="s">
+      <c r="A449" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" s="52" t="s">
+      <c r="A450" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451" s="52" t="s">
+      <c r="A451" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452" s="52" t="s">
+      <c r="A452" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453" s="52" t="s">
+      <c r="A453" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454" s="52" t="s">
+      <c r="A454" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" s="52" t="s">
+      <c r="A455" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456" s="52" t="s">
+      <c r="A456" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" s="52" t="s">
+      <c r="A457" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458" s="52" t="s">
+      <c r="A458" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459" s="52" t="s">
+      <c r="A459" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460" s="52" t="s">
+      <c r="A460" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461" s="52" t="s">
+      <c r="A461" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462" s="52" t="s">
+      <c r="A462" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A463" s="52" t="s">
+      <c r="A463" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A464" s="52" t="s">
+      <c r="A464" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A465" s="52" t="s">
+      <c r="A465" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A466" s="52" t="s">
+      <c r="A466" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A467" s="52" t="s">
+      <c r="A467" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A468" s="52" t="s">
+      <c r="A468" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A469" s="52" t="s">
+      <c r="A469" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A470" s="52" t="s">
+      <c r="A470" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A471" s="52" t="s">
+      <c r="A471" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A472" s="52" t="s">
+      <c r="A472" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A473" s="52" t="s">
+      <c r="A473" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A474" s="52" t="s">
+      <c r="A474" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A475" s="52" t="s">
+      <c r="A475" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A476" s="52" t="s">
+      <c r="A476" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A477" s="52" t="s">
+      <c r="A477" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A478" s="52" t="s">
+      <c r="A478" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A479" s="52" t="s">
+      <c r="A479" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A480" s="52" t="s">
+      <c r="A480" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A481" s="52" t="s">
+      <c r="A481" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A482" s="52" t="s">
+      <c r="A482" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A483" s="52" t="s">
+      <c r="A483" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A484" s="52" t="s">
+      <c r="A484" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A485" s="52" t="s">
+      <c r="A485" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A486" s="52" t="s">
+      <c r="A486" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A487" s="52" t="s">
+      <c r="A487" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A488" s="52" t="s">
+      <c r="A488" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A489" s="52" t="s">
+      <c r="A489" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A490" s="52" t="s">
+      <c r="A490" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A491" s="52" t="s">
+      <c r="A491" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A492" s="52" t="s">
+      <c r="A492" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A493" s="52" t="s">
+      <c r="A493" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A494" s="52" t="s">
+      <c r="A494" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A495" s="52" t="s">
+      <c r="A495" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A496" s="52" t="s">
+      <c r="A496" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A497" s="52" t="s">
+      <c r="A497" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A498" s="52" t="s">
+      <c r="A498" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A499" s="52" t="s">
+      <c r="A499" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A500" s="52" t="s">
+      <c r="A500" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A501" s="52" t="s">
+      <c r="A501" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A502" s="52" t="s">
+      <c r="A502" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A503" s="52" t="s">
+      <c r="A503" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A504" s="52" t="s">
+      <c r="A504" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A505" s="52" t="s">
+      <c r="A505" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A506" s="52" t="s">
+      <c r="A506" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A507" s="52" t="s">
+      <c r="A507" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A508" s="52" t="s">
+      <c r="A508" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A509" s="52" t="s">
+      <c r="A509" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A510" s="52" t="s">
+      <c r="A510" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A511" s="52" t="s">
+      <c r="A511" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A512" s="52" t="s">
+      <c r="A512" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A513" s="52" t="s">
+      <c r="A513" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A514" s="52" t="s">
+      <c r="A514" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A515" s="52" t="s">
+      <c r="A515" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A516" s="52" t="s">
+      <c r="A516" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A517" s="52" t="s">
+      <c r="A517" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A518" s="52" t="s">
+      <c r="A518" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A519" s="52" t="s">
+      <c r="A519" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A520" s="52" t="s">
+      <c r="A520" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A521" s="52" t="s">
+      <c r="A521" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A522" s="52" t="s">
+      <c r="A522" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A523" s="52" t="s">
+      <c r="A523" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A524" s="52" t="s">
+      <c r="A524" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A525" s="52" t="s">
+      <c r="A525" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A526" s="52" t="s">
+      <c r="A526" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A527" s="52" t="s">
+      <c r="A527" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A528" s="52" t="s">
+      <c r="A528" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A529" s="52" t="s">
+      <c r="A529" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A530" s="52" t="s">
+      <c r="A530" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A531" s="52" t="s">
+      <c r="A531" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A532" s="52" t="s">
+      <c r="A532" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A533" s="52" t="s">
+      <c r="A533" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A534" s="52" t="s">
+      <c r="A534" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A535" s="52" t="s">
+      <c r="A535" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A536" s="52" t="s">
+      <c r="A536" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A537" s="52" t="s">
+      <c r="A537" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A538" s="52" t="s">
+      <c r="A538" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A539" s="52" t="s">
+      <c r="A539" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A540" s="52" t="s">
+      <c r="A540" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A541" s="52" t="s">
+      <c r="A541" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A542" s="52" t="s">
+      <c r="A542" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A543" s="52" t="s">
+      <c r="A543" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A544" s="52" t="s">
+      <c r="A544" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A545" s="52" t="s">
+      <c r="A545" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A546" s="52" t="s">
+      <c r="A546" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A547" s="52" t="s">
+      <c r="A547" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A548" s="52" t="s">
+      <c r="A548" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A549" s="52" t="s">
+      <c r="A549" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A550" s="52" t="s">
+      <c r="A550" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A551" s="52" t="s">
+      <c r="A551" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A552" s="52" t="s">
+      <c r="A552" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A553" s="52" t="s">
+      <c r="A553" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A554" s="52" t="s">
+      <c r="A554" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A555" s="52" t="s">
+      <c r="A555" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A556" s="52" t="s">
+      <c r="A556" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A557" s="52" t="s">
+      <c r="A557" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A558" s="52" t="s">
+      <c r="A558" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A559" s="52" t="s">
+      <c r="A559" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A560" s="52" t="s">
+      <c r="A560" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A561" s="52" t="s">
+      <c r="A561" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A562" s="52" t="s">
+      <c r="A562" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A563" s="52" t="s">
+      <c r="A563" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A564" s="52" t="s">
+      <c r="A564" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A565" s="52" t="s">
+      <c r="A565" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A566" s="52" t="s">
+      <c r="A566" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A567" s="52" t="s">
+      <c r="A567" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A568" s="52" t="s">
+      <c r="A568" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A569" s="52" t="s">
+      <c r="A569" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A570" s="52" t="s">
+      <c r="A570" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A571" s="52" t="s">
+      <c r="A571" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A572" s="52" t="s">
+      <c r="A572" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A573" s="52" t="s">
+      <c r="A573" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A574" s="52" t="s">
+      <c r="A574" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A575" s="52" t="s">
+      <c r="A575" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A576" s="52" t="s">
+      <c r="A576" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A577" s="52" t="s">
+      <c r="A577" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A578" s="52" t="s">
+      <c r="A578" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A579" s="52" t="s">
+      <c r="A579" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A580" s="52" t="s">
+      <c r="A580" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A581" s="52" t="s">
+      <c r="A581" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A582" s="52" t="s">
+      <c r="A582" s="46" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A584" s="52" t="s">
+      <c r="A584" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B584" s="54"/>
+      <c r="B584" s="48"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A585" s="52" t="s">
+      <c r="A585" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B585" s="54"/>
+      <c r="B585" s="48"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A586" s="52" t="s">
+      <c r="A586" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B586" s="54"/>
+      <c r="B586" s="48"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A587" s="52" t="s">
+      <c r="A587" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="B587" s="54"/>
+      <c r="B587" s="48"/>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B588" s="54"/>
+      <c r="B588" s="48"/>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A589" s="52" t="s">
+      <c r="A589" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B589" s="54"/>
+      <c r="B589" s="48"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A590" s="52" t="s">
+      <c r="A590" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B590" s="54"/>
+      <c r="B590" s="48"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A591" s="52" t="s">
+      <c r="A591" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="B591" s="54"/>
+      <c r="B591" s="48"/>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B592" s="54"/>
+      <c r="B592" s="48"/>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A593" s="52" t="s">
+      <c r="A593" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B593" s="54"/>
+      <c r="B593" s="48"/>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A594" s="52" t="s">
+      <c r="A594" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="B594" s="54"/>
+      <c r="B594" s="48"/>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B595" s="54"/>
+      <c r="B595" s="48"/>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A596" s="52" t="s">
+      <c r="A596" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B596" s="54"/>
+      <c r="B596" s="48"/>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A597" s="52" t="s">
+      <c r="A597" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B597" s="54"/>
+      <c r="B597" s="48"/>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A598" s="52" t="s">
+      <c r="A598" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B598" s="54"/>
+      <c r="B598" s="48"/>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A599" s="52" t="s">
+      <c r="A599" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B599" s="54"/>
+      <c r="B599" s="48"/>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A600" s="52" t="s">
+      <c r="A600" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B600" s="54"/>
+      <c r="B600" s="48"/>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A601" s="52" t="s">
+      <c r="A601" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B601" s="54"/>
+      <c r="B601" s="48"/>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A602" s="52" t="s">
+      <c r="A602" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B602" s="54"/>
+      <c r="B602" s="48"/>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A603" s="52" t="s">
+      <c r="A603" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B603" s="54"/>
+      <c r="B603" s="48"/>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A604" s="52" t="s">
+      <c r="A604" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B604" s="54"/>
+      <c r="B604" s="48"/>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A605" s="52" t="s">
+      <c r="A605" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B605" s="54"/>
+      <c r="B605" s="48"/>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A606" s="52" t="s">
+      <c r="A606" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B606" s="54"/>
+      <c r="B606" s="48"/>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B607" s="54"/>
+      <c r="B607" s="48"/>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A608" s="52" t="s">
+      <c r="A608" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B608" s="54"/>
+      <c r="B608" s="48"/>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A609" s="52" t="s">
+      <c r="A609" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="B609" s="54"/>
+      <c r="B609" s="48"/>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B610" s="54"/>
+      <c r="B610" s="48"/>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A611" s="52" t="s">
+      <c r="A611" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B611" s="54"/>
+      <c r="B611" s="48"/>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A612" s="52" t="s">
+      <c r="A612" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B612" s="54"/>
+      <c r="B612" s="48"/>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A613" s="52" t="s">
+      <c r="A613" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B613" s="54"/>
+      <c r="B613" s="48"/>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A614" s="52" t="s">
+      <c r="A614" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B614" s="54"/>
+      <c r="B614" s="48"/>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B615" s="54"/>
+      <c r="B615" s="48"/>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A616" s="52" t="s">
+      <c r="A616" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B616" s="54"/>
+      <c r="B616" s="48"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A617" s="52" t="s">
+      <c r="A617" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B617" s="54"/>
+      <c r="B617" s="48"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A618" s="52" t="s">
+      <c r="A618" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B618" s="54"/>
+      <c r="B618" s="48"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A619" s="52" t="s">
+      <c r="A619" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B619" s="54"/>
+      <c r="B619" s="48"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A620" s="52" t="s">
+      <c r="A620" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="B620" s="54"/>
+      <c r="B620" s="48"/>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B621" s="54"/>
+      <c r="B621" s="48"/>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A622" s="52" t="s">
+      <c r="A622" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B622" s="54"/>
+      <c r="B622" s="48"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A623" s="52" t="s">
+      <c r="A623" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="B623" s="54"/>
+      <c r="B623" s="48"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A626" s="55" t="s">
+      <c r="A626" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B626" s="54"/>
-      <c r="C626" s="55"/>
+      <c r="B626" s="48"/>
+      <c r="C626" s="49"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A627" s="55" t="s">
+      <c r="A627" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B627" s="54"/>
-      <c r="C627" s="55"/>
+      <c r="B627" s="48"/>
+      <c r="C627" s="49"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A628" s="55" t="s">
+      <c r="A628" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B628" s="54"/>
-      <c r="C628" s="55"/>
+      <c r="B628" s="48"/>
+      <c r="C628" s="49"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A629" s="55" t="s">
+      <c r="A629" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B629" s="54"/>
-      <c r="C629" s="55"/>
+      <c r="B629" s="48"/>
+      <c r="C629" s="49"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A630" s="55" t="s">
+      <c r="A630" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B630" s="54"/>
-      <c r="C630" s="55"/>
+      <c r="B630" s="48"/>
+      <c r="C630" s="49"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A631" s="55" t="s">
+      <c r="A631" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B631" s="54"/>
-      <c r="C631" s="55"/>
+      <c r="B631" s="48"/>
+      <c r="C631" s="49"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A632" s="55" t="s">
+      <c r="A632" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B632" s="54"/>
-      <c r="C632" s="55"/>
+      <c r="B632" s="48"/>
+      <c r="C632" s="49"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A633" s="55" t="s">
+      <c r="A633" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B633" s="54"/>
-      <c r="C633" s="55"/>
+      <c r="B633" s="48"/>
+      <c r="C633" s="49"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A634" s="55" t="s">
+      <c r="A634" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B634" s="54"/>
-      <c r="C634" s="55"/>
+      <c r="B634" s="48"/>
+      <c r="C634" s="49"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A635" s="55" t="s">
+      <c r="A635" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B635" s="54"/>
-      <c r="C635" s="55"/>
+      <c r="B635" s="48"/>
+      <c r="C635" s="49"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A636" s="55" t="s">
+      <c r="A636" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B636" s="54"/>
-      <c r="C636" s="55"/>
+      <c r="B636" s="48"/>
+      <c r="C636" s="49"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A637" s="55" t="s">
+      <c r="A637" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B637" s="54"/>
-      <c r="C637" s="55"/>
+      <c r="B637" s="48"/>
+      <c r="C637" s="49"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A638" s="55" t="s">
+      <c r="A638" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B638" s="54"/>
-      <c r="C638" s="55"/>
+      <c r="B638" s="48"/>
+      <c r="C638" s="49"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A639" s="55" t="s">
+      <c r="A639" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B639" s="54"/>
-      <c r="C639" s="55"/>
+      <c r="B639" s="48"/>
+      <c r="C639" s="49"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A640" s="55" t="s">
+      <c r="A640" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B640" s="54"/>
-      <c r="C640" s="55"/>
+      <c r="B640" s="48"/>
+      <c r="C640" s="49"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A641" s="55" t="s">
+      <c r="A641" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B641" s="54"/>
-      <c r="C641" s="55"/>
+      <c r="B641" s="48"/>
+      <c r="C641" s="49"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A642" s="55" t="s">
+      <c r="A642" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B642" s="54"/>
-      <c r="C642" s="55"/>
+      <c r="B642" s="48"/>
+      <c r="C642" s="49"/>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A643" s="55"/>
-      <c r="B643" s="56"/>
-      <c r="C643" s="55"/>
+      <c r="A643" s="49"/>
+      <c r="B643" s="50"/>
+      <c r="C643" s="49"/>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A644" s="55" t="s">
+      <c r="A644" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B644" s="56"/>
-      <c r="C644" s="55"/>
+      <c r="B644" s="50"/>
+      <c r="C644" s="49"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A645" s="55" t="s">
+      <c r="A645" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B645" s="56"/>
-      <c r="C645" s="55"/>
+      <c r="B645" s="50"/>
+      <c r="C645" s="49"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A647" s="55" t="s">
+      <c r="A647" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B647" s="54"/>
-      <c r="C647" s="55"/>
+      <c r="B647" s="48"/>
+      <c r="C647" s="49"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A648" s="55" t="s">
+      <c r="A648" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B648" s="54"/>
-      <c r="C648" s="55"/>
+      <c r="B648" s="48"/>
+      <c r="C648" s="49"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A649" s="55" t="s">
+      <c r="A649" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B649" s="54"/>
-      <c r="C649" s="55"/>
+      <c r="B649" s="48"/>
+      <c r="C649" s="49"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A650" s="55" t="s">
+      <c r="A650" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B650" s="54"/>
-      <c r="C650" s="55"/>
+      <c r="B650" s="48"/>
+      <c r="C650" s="49"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A651" s="55" t="s">
+      <c r="A651" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B651" s="54"/>
-      <c r="C651" s="55"/>
+      <c r="B651" s="48"/>
+      <c r="C651" s="49"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A652" s="55" t="s">
+      <c r="A652" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B652" s="54"/>
-      <c r="C652" s="55"/>
+      <c r="B652" s="48"/>
+      <c r="C652" s="49"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A653" s="55" t="s">
+      <c r="A653" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B653" s="54"/>
-      <c r="C653" s="55"/>
+      <c r="B653" s="48"/>
+      <c r="C653" s="49"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A654" s="55" t="s">
+      <c r="A654" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B654" s="54"/>
-      <c r="C654" s="55"/>
+      <c r="B654" s="48"/>
+      <c r="C654" s="49"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A655" s="55" t="s">
+      <c r="A655" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B655" s="54"/>
-      <c r="C655" s="55"/>
+      <c r="B655" s="48"/>
+      <c r="C655" s="49"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A656" s="55" t="s">
+      <c r="A656" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B656" s="54"/>
-      <c r="C656" s="55"/>
+      <c r="B656" s="48"/>
+      <c r="C656" s="49"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A657" s="55" t="s">
+      <c r="A657" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B657" s="54"/>
-      <c r="C657" s="55"/>
+      <c r="B657" s="48"/>
+      <c r="C657" s="49"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A658" s="55" t="s">
+      <c r="A658" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B658" s="54"/>
-      <c r="C658" s="55"/>
+      <c r="B658" s="48"/>
+      <c r="C658" s="49"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A659" s="55" t="s">
+      <c r="A659" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B659" s="54"/>
-      <c r="C659" s="55"/>
+      <c r="B659" s="48"/>
+      <c r="C659" s="49"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A660" s="55" t="s">
+      <c r="A660" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B660" s="54"/>
-      <c r="C660" s="55"/>
+      <c r="B660" s="48"/>
+      <c r="C660" s="49"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A661" s="55" t="s">
+      <c r="A661" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B661" s="54"/>
-      <c r="C661" s="55"/>
+      <c r="B661" s="48"/>
+      <c r="C661" s="49"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A662" s="55" t="s">
+      <c r="A662" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B662" s="54"/>
-      <c r="C662" s="55"/>
+      <c r="B662" s="48"/>
+      <c r="C662" s="49"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A663" s="55" t="s">
+      <c r="A663" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B663" s="54"/>
-      <c r="C663" s="55"/>
+      <c r="B663" s="48"/>
+      <c r="C663" s="49"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A664" s="55" t="s">
+      <c r="A664" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B664" s="54"/>
-      <c r="C664" s="55"/>
+      <c r="B664" s="48"/>
+      <c r="C664" s="49"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A665" s="55" t="s">
+      <c r="A665" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="B665" s="54"/>
-      <c r="C665" s="55"/>
+      <c r="B665" s="48"/>
+      <c r="C665" s="49"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A668" s="55" t="s">
+      <c r="A668" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B668" s="54"/>
-      <c r="C668" s="55"/>
+      <c r="B668" s="48"/>
+      <c r="C668" s="49"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A669" s="55" t="s">
+      <c r="A669" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B669" s="54"/>
-      <c r="C669" s="55"/>
+      <c r="B669" s="48"/>
+      <c r="C669" s="49"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A670" s="55" t="s">
+      <c r="A670" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B670" s="54"/>
-      <c r="C670" s="55"/>
+      <c r="B670" s="48"/>
+      <c r="C670" s="49"/>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A671" s="55"/>
-      <c r="B671" s="54"/>
-      <c r="C671" s="55"/>
+      <c r="A671" s="49"/>
+      <c r="B671" s="48"/>
+      <c r="C671" s="49"/>
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A672" s="55"/>
-      <c r="B672" s="54"/>
-      <c r="C672" s="55"/>
+      <c r="A672" s="49"/>
+      <c r="B672" s="48"/>
+      <c r="C672" s="49"/>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A673" s="55" t="s">
+      <c r="A673" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B673" s="54"/>
-      <c r="C673" s="55"/>
+      <c r="B673" s="48"/>
+      <c r="C673" s="49"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A674" s="55" t="s">
+      <c r="A674" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B674" s="54"/>
-      <c r="C674" s="55"/>
+      <c r="B674" s="48"/>
+      <c r="C674" s="49"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A675" s="55" t="s">
+      <c r="A675" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B675" s="54"/>
-      <c r="C675" s="55"/>
+      <c r="B675" s="48"/>
+      <c r="C675" s="49"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A676" s="55" t="s">
+      <c r="A676" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B676" s="54"/>
-      <c r="C676" s="55"/>
+      <c r="B676" s="48"/>
+      <c r="C676" s="49"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A677" s="55" t="s">
+      <c r="A677" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B677" s="54"/>
-      <c r="C677" s="55"/>
+      <c r="B677" s="48"/>
+      <c r="C677" s="49"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A678" s="55" t="s">
+      <c r="A678" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B678" s="54"/>
-      <c r="C678" s="55"/>
+      <c r="B678" s="48"/>
+      <c r="C678" s="49"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A679" s="55" t="s">
+      <c r="A679" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B679" s="54"/>
-      <c r="C679" s="55"/>
+      <c r="B679" s="48"/>
+      <c r="C679" s="49"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A680" s="55" t="s">
+      <c r="A680" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B680" s="54"/>
-      <c r="C680" s="55"/>
+      <c r="B680" s="48"/>
+      <c r="C680" s="49"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A681" s="55" t="s">
+      <c r="A681" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B681" s="54"/>
-      <c r="C681" s="55"/>
+      <c r="B681" s="48"/>
+      <c r="C681" s="49"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A682" s="55" t="s">
+      <c r="A682" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B682" s="54"/>
-      <c r="C682" s="55"/>
+      <c r="B682" s="48"/>
+      <c r="C682" s="49"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A684" s="55" t="s">
+      <c r="A684" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B684" s="54"/>
-      <c r="C684" s="55"/>
+      <c r="B684" s="48"/>
+      <c r="C684" s="49"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A685" s="55" t="s">
+      <c r="A685" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B685" s="54"/>
-      <c r="C685" s="55"/>
+      <c r="B685" s="48"/>
+      <c r="C685" s="49"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A686" s="55" t="s">
+      <c r="A686" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B686" s="54"/>
-      <c r="C686" s="55"/>
+      <c r="B686" s="48"/>
+      <c r="C686" s="49"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A687" s="55" t="s">
+      <c r="A687" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B687" s="54"/>
-      <c r="C687" s="55"/>
+      <c r="B687" s="48"/>
+      <c r="C687" s="49"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A688" s="55" t="s">
+      <c r="A688" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B688" s="54"/>
-      <c r="C688" s="55"/>
+      <c r="B688" s="48"/>
+      <c r="C688" s="49"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A689" s="55" t="s">
+      <c r="A689" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B689" s="54"/>
-      <c r="C689" s="55"/>
+      <c r="B689" s="48"/>
+      <c r="C689" s="49"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A690" s="55" t="s">
+      <c r="A690" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B690" s="54"/>
-      <c r="C690" s="55"/>
+      <c r="B690" s="48"/>
+      <c r="C690" s="49"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A691" s="55" t="s">
+      <c r="A691" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B691" s="54"/>
-      <c r="C691" s="55"/>
+      <c r="B691" s="48"/>
+      <c r="C691" s="49"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A692" s="55" t="s">
+      <c r="A692" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B692" s="54"/>
-      <c r="C692" s="55"/>
+      <c r="B692" s="48"/>
+      <c r="C692" s="49"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A693" s="55" t="s">
+      <c r="A693" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B693" s="54"/>
-      <c r="C693" s="55"/>
+      <c r="B693" s="48"/>
+      <c r="C693" s="49"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A694" s="55" t="s">
+      <c r="A694" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B694" s="54"/>
-      <c r="C694" s="55"/>
+      <c r="B694" s="48"/>
+      <c r="C694" s="49"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A696" s="55" t="s">
+      <c r="A696" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B696" s="54"/>
-      <c r="C696" s="55"/>
+      <c r="B696" s="48"/>
+      <c r="C696" s="49"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A697" s="55" t="s">
+      <c r="A697" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B697" s="54"/>
-      <c r="C697" s="55"/>
+      <c r="B697" s="48"/>
+      <c r="C697" s="49"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A698" s="55" t="s">
+      <c r="A698" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B698" s="54"/>
-      <c r="C698" s="55"/>
+      <c r="B698" s="48"/>
+      <c r="C698" s="49"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A699" s="55" t="s">
+      <c r="A699" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B699" s="54"/>
-      <c r="C699" s="55"/>
+      <c r="B699" s="48"/>
+      <c r="C699" s="49"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A700" s="55" t="s">
+      <c r="A700" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B700" s="54"/>
-      <c r="C700" s="55"/>
+      <c r="B700" s="48"/>
+      <c r="C700" s="49"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A701" s="55" t="s">
+      <c r="A701" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B701" s="54"/>
-      <c r="C701" s="55"/>
+      <c r="B701" s="48"/>
+      <c r="C701" s="49"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A702" s="55" t="s">
+      <c r="A702" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B702" s="54"/>
-      <c r="C702" s="55"/>
+      <c r="B702" s="48"/>
+      <c r="C702" s="49"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A703" s="55" t="s">
+      <c r="A703" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B703" s="54"/>
-      <c r="C703" s="55"/>
+      <c r="B703" s="48"/>
+      <c r="C703" s="49"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A704" s="55" t="s">
+      <c r="A704" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B704" s="54"/>
-      <c r="C704" s="55"/>
+      <c r="B704" s="48"/>
+      <c r="C704" s="49"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A705" s="55" t="s">
+      <c r="A705" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B705" s="54"/>
-      <c r="C705" s="55"/>
+      <c r="B705" s="48"/>
+      <c r="C705" s="49"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A706" s="55" t="s">
+      <c r="A706" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B706" s="54"/>
-      <c r="C706" s="55"/>
+      <c r="B706" s="48"/>
+      <c r="C706" s="49"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A707" s="55" t="s">
+      <c r="A707" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B707" s="54"/>
-      <c r="C707" s="55"/>
+      <c r="B707" s="48"/>
+      <c r="C707" s="49"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A709" s="55" t="s">
+      <c r="A709" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B709" s="54"/>
-      <c r="C709" s="55"/>
+      <c r="B709" s="48"/>
+      <c r="C709" s="49"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A710" s="55" t="s">
+      <c r="A710" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B710" s="54"/>
-      <c r="C710" s="55"/>
+      <c r="B710" s="48"/>
+      <c r="C710" s="49"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A711" s="55" t="s">
+      <c r="A711" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B711" s="54"/>
-      <c r="C711" s="55"/>
+      <c r="B711" s="48"/>
+      <c r="C711" s="49"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A712" s="55" t="s">
+      <c r="A712" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B712" s="54"/>
-      <c r="C712" s="55"/>
+      <c r="B712" s="48"/>
+      <c r="C712" s="49"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A714" s="55" t="s">
+      <c r="A714" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B714" s="54"/>
-      <c r="C714" s="55"/>
+      <c r="B714" s="48"/>
+      <c r="C714" s="49"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A715" s="55" t="s">
+      <c r="A715" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B715" s="54"/>
-      <c r="C715" s="55"/>
+      <c r="B715" s="48"/>
+      <c r="C715" s="49"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A716" s="55" t="s">
+      <c r="A716" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B716" s="54"/>
-      <c r="C716" s="55"/>
+      <c r="B716" s="48"/>
+      <c r="C716" s="49"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A717" s="55" t="s">
+      <c r="A717" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B717" s="54"/>
-      <c r="C717" s="55"/>
+      <c r="B717" s="48"/>
+      <c r="C717" s="49"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A718" s="55" t="s">
+      <c r="A718" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B718" s="54"/>
-      <c r="C718" s="55"/>
+      <c r="B718" s="48"/>
+      <c r="C718" s="49"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A719" s="55" t="s">
+      <c r="A719" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B719" s="54"/>
-      <c r="C719" s="55"/>
+      <c r="B719" s="48"/>
+      <c r="C719" s="49"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A720" s="55" t="s">
+      <c r="A720" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B720" s="54"/>
-      <c r="C720" s="55"/>
+      <c r="B720" s="48"/>
+      <c r="C720" s="49"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A721" s="55" t="s">
+      <c r="A721" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B721" s="54"/>
-      <c r="C721" s="55"/>
+      <c r="B721" s="48"/>
+      <c r="C721" s="49"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A722" s="55" t="s">
+      <c r="A722" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B722" s="54"/>
-      <c r="C722" s="55"/>
+      <c r="B722" s="48"/>
+      <c r="C722" s="49"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A723" s="55" t="s">
+      <c r="A723" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B723" s="54"/>
-      <c r="C723" s="55"/>
+      <c r="B723" s="48"/>
+      <c r="C723" s="49"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A724" s="55" t="s">
+      <c r="A724" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B724" s="54"/>
-      <c r="C724" s="55"/>
+      <c r="B724" s="48"/>
+      <c r="C724" s="49"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A725" s="55" t="s">
+      <c r="A725" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B725" s="54"/>
-      <c r="C725" s="55"/>
+      <c r="B725" s="48"/>
+      <c r="C725" s="49"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A726" s="55" t="s">
+      <c r="A726" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B726" s="54"/>
-      <c r="C726" s="55"/>
+      <c r="B726" s="48"/>
+      <c r="C726" s="49"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A727" s="55" t="s">
+      <c r="A727" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B727" s="54"/>
-      <c r="C727" s="55"/>
+      <c r="B727" s="48"/>
+      <c r="C727" s="49"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A728" s="55" t="s">
+      <c r="A728" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B728" s="54"/>
-      <c r="C728" s="55"/>
+      <c r="B728" s="48"/>
+      <c r="C728" s="49"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A729" s="55" t="s">
+      <c r="A729" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B729" s="54"/>
-      <c r="C729" s="55"/>
+      <c r="B729" s="48"/>
+      <c r="C729" s="49"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A730" s="55" t="s">
+      <c r="A730" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B730" s="54"/>
-      <c r="C730" s="55"/>
+      <c r="B730" s="48"/>
+      <c r="C730" s="49"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A731" s="55" t="s">
+      <c r="A731" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B731" s="54"/>
-      <c r="C731" s="55"/>
+      <c r="B731" s="48"/>
+      <c r="C731" s="49"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A732" s="55" t="s">
+      <c r="A732" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B732" s="54"/>
-      <c r="C732" s="55"/>
+      <c r="B732" s="48"/>
+      <c r="C732" s="49"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A733" s="55" t="s">
+      <c r="A733" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B733" s="54"/>
-      <c r="C733" s="55"/>
+      <c r="B733" s="48"/>
+      <c r="C733" s="49"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A734" s="55" t="s">
+      <c r="A734" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B734" s="54"/>
-      <c r="C734" s="55"/>
+      <c r="B734" s="48"/>
+      <c r="C734" s="49"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A735" s="55" t="s">
+      <c r="A735" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B735" s="54"/>
-      <c r="C735" s="55"/>
+      <c r="B735" s="48"/>
+      <c r="C735" s="49"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A736" s="55" t="s">
+      <c r="A736" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B736" s="54"/>
-      <c r="C736" s="55"/>
+      <c r="B736" s="48"/>
+      <c r="C736" s="49"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A737" s="55" t="s">
+      <c r="A737" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B737" s="54"/>
-      <c r="C737" s="55"/>
+      <c r="B737" s="48"/>
+      <c r="C737" s="49"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A738" s="55" t="s">
+      <c r="A738" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B738" s="54"/>
-      <c r="C738" s="55"/>
+      <c r="B738" s="48"/>
+      <c r="C738" s="49"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A739" s="55" t="s">
+      <c r="A739" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B739" s="54"/>
-      <c r="C739" s="55"/>
+      <c r="B739" s="48"/>
+      <c r="C739" s="49"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A740" s="55" t="s">
+      <c r="A740" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B740" s="54"/>
-      <c r="C740" s="55"/>
+      <c r="B740" s="48"/>
+      <c r="C740" s="49"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A742" s="55" t="s">
+      <c r="A742" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B742" s="54"/>
-      <c r="C742" s="55"/>
+      <c r="B742" s="48"/>
+      <c r="C742" s="49"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A743" s="55" t="s">
+      <c r="A743" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B743" s="54"/>
-      <c r="C743" s="55"/>
+      <c r="B743" s="48"/>
+      <c r="C743" s="49"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A744" s="55" t="s">
+      <c r="A744" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B744" s="54"/>
-      <c r="C744" s="55"/>
+      <c r="B744" s="48"/>
+      <c r="C744" s="49"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A745" s="55" t="s">
+      <c r="A745" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B745" s="54"/>
-      <c r="C745" s="55"/>
+      <c r="B745" s="48"/>
+      <c r="C745" s="49"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A746" s="55" t="s">
+      <c r="A746" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B746" s="54"/>
-      <c r="C746" s="55"/>
+      <c r="B746" s="48"/>
+      <c r="C746" s="49"/>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A747" s="55"/>
-      <c r="B747" s="54"/>
-      <c r="C747" s="55"/>
+      <c r="A747" s="49"/>
+      <c r="B747" s="48"/>
+      <c r="C747" s="49"/>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A748" s="55" t="s">
+      <c r="A748" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B748" s="54"/>
-      <c r="C748" s="55"/>
+      <c r="B748" s="48"/>
+      <c r="C748" s="49"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A749" s="55" t="s">
+      <c r="A749" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B749" s="54"/>
-      <c r="C749" s="55"/>
+      <c r="B749" s="48"/>
+      <c r="C749" s="49"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A750" s="55" t="s">
+      <c r="A750" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B750" s="54"/>
-      <c r="C750" s="55"/>
+      <c r="B750" s="48"/>
+      <c r="C750" s="49"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A751" s="55" t="s">
+      <c r="A751" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B751" s="54"/>
-      <c r="C751" s="55"/>
+      <c r="B751" s="48"/>
+      <c r="C751" s="49"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A752" s="55" t="s">
+      <c r="A752" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B752" s="54"/>
-      <c r="C752" s="55"/>
+      <c r="B752" s="48"/>
+      <c r="C752" s="49"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A753" s="55" t="s">
+      <c r="A753" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B753" s="54"/>
-      <c r="C753" s="55"/>
+      <c r="B753" s="48"/>
+      <c r="C753" s="49"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A754" s="55" t="s">
+      <c r="A754" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B754" s="54"/>
-      <c r="C754" s="55"/>
+      <c r="B754" s="48"/>
+      <c r="C754" s="49"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A755" s="55" t="s">
+      <c r="A755" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B755" s="54"/>
-      <c r="C755" s="55"/>
+      <c r="B755" s="48"/>
+      <c r="C755" s="49"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A756" s="55" t="s">
+      <c r="A756" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B756" s="54"/>
-      <c r="C756" s="55"/>
+      <c r="B756" s="48"/>
+      <c r="C756" s="49"/>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A757" s="55"/>
-      <c r="B757" s="54"/>
-      <c r="C757" s="55"/>
+      <c r="A757" s="49"/>
+      <c r="B757" s="48"/>
+      <c r="C757" s="49"/>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A758" s="55" t="s">
+      <c r="A758" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B758" s="54"/>
-      <c r="C758" s="55"/>
+      <c r="B758" s="48"/>
+      <c r="C758" s="49"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A759" s="55" t="s">
+      <c r="A759" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B759" s="54"/>
-      <c r="C759" s="55"/>
+      <c r="B759" s="48"/>
+      <c r="C759" s="49"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A760" s="55" t="s">
+      <c r="A760" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B760" s="54"/>
-      <c r="C760" s="55"/>
+      <c r="B760" s="48"/>
+      <c r="C760" s="49"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A761" s="55" t="s">
+      <c r="A761" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B761" s="54"/>
-      <c r="C761" s="55"/>
+      <c r="B761" s="48"/>
+      <c r="C761" s="49"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A762" s="55" t="s">
+      <c r="A762" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B762" s="54"/>
-      <c r="C762" s="55"/>
+      <c r="B762" s="48"/>
+      <c r="C762" s="49"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A763" s="55" t="s">
+      <c r="A763" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B763" s="54"/>
-      <c r="C763" s="55"/>
+      <c r="B763" s="48"/>
+      <c r="C763" s="49"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A764" s="55" t="s">
+      <c r="A764" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B764" s="54"/>
-      <c r="C764" s="55"/>
+      <c r="B764" s="48"/>
+      <c r="C764" s="49"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A765" s="55" t="s">
+      <c r="A765" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B765" s="54"/>
-      <c r="C765" s="55"/>
+      <c r="B765" s="48"/>
+      <c r="C765" s="49"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A766" s="55" t="s">
+      <c r="A766" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B766" s="54"/>
-      <c r="C766" s="55"/>
+      <c r="B766" s="48"/>
+      <c r="C766" s="49"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A767" s="55" t="s">
+      <c r="A767" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B767" s="54"/>
-      <c r="C767" s="55"/>
+      <c r="B767" s="48"/>
+      <c r="C767" s="49"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A768" s="55" t="s">
+      <c r="A768" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B768" s="54"/>
-      <c r="C768" s="55"/>
+      <c r="B768" s="48"/>
+      <c r="C768" s="49"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A769" s="55" t="s">
+      <c r="A769" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B769" s="54"/>
-      <c r="C769" s="55"/>
+      <c r="B769" s="48"/>
+      <c r="C769" s="49"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A770" s="55" t="s">
+      <c r="A770" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B770" s="54"/>
-      <c r="C770" s="55"/>
+      <c r="B770" s="48"/>
+      <c r="C770" s="49"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A771" s="55" t="s">
+      <c r="A771" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B771" s="54"/>
-      <c r="C771" s="55"/>
+      <c r="B771" s="48"/>
+      <c r="C771" s="49"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A772" s="55" t="s">
+      <c r="A772" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B772" s="54"/>
-      <c r="C772" s="55"/>
+      <c r="B772" s="48"/>
+      <c r="C772" s="49"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A773" s="55" t="s">
+      <c r="A773" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B773" s="54"/>
-      <c r="C773" s="55"/>
+      <c r="B773" s="48"/>
+      <c r="C773" s="49"/>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A774" s="55"/>
-      <c r="B774" s="54"/>
-      <c r="C774" s="55"/>
+      <c r="A774" s="49"/>
+      <c r="B774" s="48"/>
+      <c r="C774" s="49"/>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A775" s="55" t="s">
+      <c r="A775" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B775" s="54"/>
-      <c r="C775" s="55"/>
+      <c r="B775" s="48"/>
+      <c r="C775" s="49"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A776" s="55" t="s">
+      <c r="A776" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B776" s="54"/>
-      <c r="C776" s="55"/>
+      <c r="B776" s="48"/>
+      <c r="C776" s="49"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A777" s="55" t="s">
+      <c r="A777" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B777" s="54"/>
-      <c r="C777" s="55"/>
+      <c r="B777" s="48"/>
+      <c r="C777" s="49"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A778" s="55" t="s">
+      <c r="A778" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B778" s="54"/>
-      <c r="C778" s="55"/>
+      <c r="B778" s="48"/>
+      <c r="C778" s="49"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A779" s="55" t="s">
+      <c r="A779" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B779" s="54"/>
-      <c r="C779" s="55"/>
+      <c r="B779" s="48"/>
+      <c r="C779" s="49"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A780" s="55" t="s">
+      <c r="A780" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B780" s="54"/>
-      <c r="C780" s="55"/>
+      <c r="B780" s="48"/>
+      <c r="C780" s="49"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A781" s="55" t="s">
+      <c r="A781" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B781" s="54"/>
-      <c r="C781" s="55"/>
+      <c r="B781" s="48"/>
+      <c r="C781" s="49"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A782" s="55" t="s">
+      <c r="A782" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B782" s="54"/>
-      <c r="C782" s="55"/>
+      <c r="B782" s="48"/>
+      <c r="C782" s="49"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A783" s="55" t="s">
+      <c r="A783" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B783" s="54"/>
-      <c r="C783" s="55"/>
+      <c r="B783" s="48"/>
+      <c r="C783" s="49"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A784" s="55" t="s">
+      <c r="A784" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B784" s="54"/>
-      <c r="C784" s="55"/>
+      <c r="B784" s="48"/>
+      <c r="C784" s="49"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A785" s="55" t="s">
+      <c r="A785" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B785" s="54"/>
-      <c r="C785" s="55"/>
+      <c r="B785" s="48"/>
+      <c r="C785" s="49"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A786" s="55" t="s">
+      <c r="A786" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B786" s="54"/>
-      <c r="C786" s="55"/>
+      <c r="B786" s="48"/>
+      <c r="C786" s="49"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A787" s="55" t="s">
+      <c r="A787" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B787" s="54"/>
-      <c r="C787" s="55"/>
+      <c r="B787" s="48"/>
+      <c r="C787" s="49"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A788" s="55" t="s">
+      <c r="A788" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B788" s="54"/>
-      <c r="C788" s="55"/>
+      <c r="B788" s="48"/>
+      <c r="C788" s="49"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A789" s="55" t="s">
+      <c r="A789" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B789" s="54"/>
-      <c r="C789" s="55"/>
+      <c r="B789" s="48"/>
+      <c r="C789" s="49"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A790" s="55" t="s">
+      <c r="A790" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B790" s="54"/>
-      <c r="C790" s="55"/>
+      <c r="B790" s="48"/>
+      <c r="C790" s="49"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A791" s="55" t="s">
+      <c r="A791" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B791" s="54"/>
-      <c r="C791" s="55"/>
+      <c r="B791" s="48"/>
+      <c r="C791" s="49"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A792" s="55" t="s">
+      <c r="A792" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B792" s="54"/>
-      <c r="C792" s="55"/>
+      <c r="B792" s="48"/>
+      <c r="C792" s="49"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A793" s="55" t="s">
+      <c r="A793" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B793" s="54"/>
-      <c r="C793" s="55"/>
+      <c r="B793" s="48"/>
+      <c r="C793" s="49"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A794" s="55" t="s">
+      <c r="A794" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B794" s="54"/>
-      <c r="C794" s="55"/>
+      <c r="B794" s="48"/>
+      <c r="C794" s="49"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A795" s="55" t="s">
+      <c r="A795" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="B795" s="54"/>
-      <c r="C795" s="55"/>
+      <c r="B795" s="48"/>
+      <c r="C795" s="49"/>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A796" s="55"/>
-      <c r="B796" s="54"/>
-      <c r="C796" s="55"/>
+      <c r="A796" s="49"/>
+      <c r="B796" s="48"/>
+      <c r="C796" s="49"/>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A797" s="55" t="s">
+      <c r="A797" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B797" s="54"/>
-      <c r="C797" s="55"/>
+      <c r="B797" s="48"/>
+      <c r="C797" s="49"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A798" s="55" t="s">
+      <c r="A798" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B798" s="54"/>
-      <c r="C798" s="55"/>
+      <c r="B798" s="48"/>
+      <c r="C798" s="49"/>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A799" s="55"/>
-      <c r="B799" s="54"/>
-      <c r="C799" s="55"/>
+      <c r="A799" s="49"/>
+      <c r="B799" s="48"/>
+      <c r="C799" s="49"/>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A800" s="55" t="s">
+      <c r="A800" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="B800" s="54"/>
-      <c r="C800" s="55"/>
+      <c r="B800" s="48"/>
+      <c r="C800" s="49"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A801" s="55" t="s">
+      <c r="A801" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="B801" s="54"/>
-      <c r="C801" s="55"/>
+      <c r="B801" s="48"/>
+      <c r="C801" s="49"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A803" s="55" t="s">
+      <c r="A803" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B803" s="54"/>
-      <c r="C803" s="55"/>
-      <c r="K803" s="55"/>
-      <c r="L803" s="54"/>
-      <c r="M803" s="55"/>
+      <c r="B803" s="48"/>
+      <c r="C803" s="49"/>
+      <c r="K803" s="49"/>
+      <c r="L803" s="48"/>
+      <c r="M803" s="49"/>
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A804" s="55" t="s">
+      <c r="A804" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B804" s="54"/>
-      <c r="C804" s="55"/>
-      <c r="K804" s="55"/>
-      <c r="L804" s="54"/>
-      <c r="M804" s="55"/>
+      <c r="B804" s="48"/>
+      <c r="C804" s="49"/>
+      <c r="K804" s="49"/>
+      <c r="L804" s="48"/>
+      <c r="M804" s="49"/>
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A805" s="55" t="s">
+      <c r="A805" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B805" s="54"/>
-      <c r="C805" s="55"/>
-      <c r="K805" s="55"/>
-      <c r="L805" s="54"/>
-      <c r="M805" s="55"/>
+      <c r="B805" s="48"/>
+      <c r="C805" s="49"/>
+      <c r="K805" s="49"/>
+      <c r="L805" s="48"/>
+      <c r="M805" s="49"/>
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A806" s="55" t="s">
+      <c r="A806" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B806" s="54"/>
-      <c r="C806" s="55"/>
-      <c r="K806" s="55"/>
-      <c r="L806" s="54"/>
-      <c r="M806" s="55"/>
+      <c r="B806" s="48"/>
+      <c r="C806" s="49"/>
+      <c r="K806" s="49"/>
+      <c r="L806" s="48"/>
+      <c r="M806" s="49"/>
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A807" s="55" t="s">
+      <c r="A807" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B807" s="54"/>
-      <c r="C807" s="55"/>
-      <c r="K807" s="55"/>
-      <c r="L807" s="54"/>
-      <c r="M807" s="55"/>
+      <c r="B807" s="48"/>
+      <c r="C807" s="49"/>
+      <c r="K807" s="49"/>
+      <c r="L807" s="48"/>
+      <c r="M807" s="49"/>
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A808" s="55" t="s">
+      <c r="A808" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B808" s="54"/>
-      <c r="C808" s="55"/>
-      <c r="K808" s="55"/>
-      <c r="L808" s="54"/>
-      <c r="M808" s="55"/>
+      <c r="B808" s="48"/>
+      <c r="C808" s="49"/>
+      <c r="K808" s="49"/>
+      <c r="L808" s="48"/>
+      <c r="M808" s="49"/>
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A809" s="55" t="s">
+      <c r="A809" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B809" s="54"/>
-      <c r="C809" s="55"/>
-      <c r="K809" s="55"/>
-      <c r="L809" s="54"/>
-      <c r="M809" s="55"/>
+      <c r="B809" s="48"/>
+      <c r="C809" s="49"/>
+      <c r="K809" s="49"/>
+      <c r="L809" s="48"/>
+      <c r="M809" s="49"/>
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A810" s="55" t="s">
+      <c r="A810" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B810" s="54"/>
-      <c r="C810" s="55"/>
-      <c r="K810" s="55"/>
-      <c r="L810" s="54"/>
-      <c r="M810" s="55"/>
+      <c r="B810" s="48"/>
+      <c r="C810" s="49"/>
+      <c r="K810" s="49"/>
+      <c r="L810" s="48"/>
+      <c r="M810" s="49"/>
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A811" s="55" t="s">
+      <c r="A811" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B811" s="54"/>
-      <c r="C811" s="55"/>
-      <c r="K811" s="55"/>
-      <c r="L811" s="54"/>
-      <c r="M811" s="55"/>
+      <c r="B811" s="48"/>
+      <c r="C811" s="49"/>
+      <c r="K811" s="49"/>
+      <c r="L811" s="48"/>
+      <c r="M811" s="49"/>
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A812" s="55" t="s">
+      <c r="A812" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="B812" s="54"/>
-      <c r="C812" s="55"/>
-      <c r="K812" s="55"/>
-      <c r="L812" s="54"/>
-      <c r="M812" s="55"/>
+      <c r="B812" s="48"/>
+      <c r="C812" s="49"/>
+      <c r="K812" s="49"/>
+      <c r="L812" s="48"/>
+      <c r="M812" s="49"/>
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A814" s="52" t="s">
+      <c r="A814" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B814" s="54"/>
-      <c r="C814" s="55"/>
+      <c r="B814" s="48"/>
+      <c r="C814" s="49"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A815" s="52" t="s">
+      <c r="A815" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B815" s="54"/>
-      <c r="C815" s="55"/>
+      <c r="B815" s="48"/>
+      <c r="C815" s="49"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A816" s="52" t="s">
+      <c r="A816" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B816" s="54"/>
-      <c r="C816" s="55"/>
+      <c r="B816" s="48"/>
+      <c r="C816" s="49"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A817" s="52" t="s">
+      <c r="A817" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B817" s="54"/>
-      <c r="C817" s="55"/>
+      <c r="B817" s="48"/>
+      <c r="C817" s="49"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A818" s="52" t="s">
+      <c r="A818" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B818" s="54"/>
-      <c r="C818" s="55"/>
+      <c r="B818" s="48"/>
+      <c r="C818" s="49"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A819" s="52" t="s">
+      <c r="A819" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B819" s="54"/>
-      <c r="C819" s="55"/>
+      <c r="B819" s="48"/>
+      <c r="C819" s="49"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A820" s="52" t="s">
+      <c r="A820" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="B820" s="54"/>
-      <c r="C820" s="55"/>
+      <c r="B820" s="48"/>
+      <c r="C820" s="49"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A822" s="55" t="s">
+      <c r="A822" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B822" s="54"/>
-      <c r="C822" s="55"/>
+      <c r="B822" s="48"/>
+      <c r="C822" s="49"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A823" s="55" t="s">
+      <c r="A823" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B823" s="54"/>
-      <c r="C823" s="55"/>
+      <c r="B823" s="48"/>
+      <c r="C823" s="49"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A824" s="55" t="s">
+      <c r="A824" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B824" s="54"/>
-      <c r="C824" s="55"/>
+      <c r="B824" s="48"/>
+      <c r="C824" s="49"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A825" s="55" t="s">
+      <c r="A825" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B825" s="54"/>
-      <c r="C825" s="55"/>
+      <c r="B825" s="48"/>
+      <c r="C825" s="49"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A826" s="55" t="s">
+      <c r="A826" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="B826" s="54"/>
-      <c r="C826" s="55"/>
+      <c r="B826" s="48"/>
+      <c r="C826" s="49"/>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A828" s="52" t="s">
+      <c r="A828" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B828" s="54"/>
-      <c r="C828" s="57"/>
+      <c r="B828" s="48"/>
+      <c r="C828" s="51"/>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A829" s="52" t="s">
+      <c r="A829" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B829" s="54"/>
-      <c r="C829" s="55"/>
+      <c r="B829" s="48"/>
+      <c r="C829" s="49"/>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A830" s="52" t="s">
+      <c r="A830" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B830" s="54"/>
-      <c r="C830" s="55"/>
+      <c r="B830" s="48"/>
+      <c r="C830" s="49"/>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A831" s="52" t="s">
+      <c r="A831" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B831" s="54"/>
-      <c r="C831" s="55"/>
+      <c r="B831" s="48"/>
+      <c r="C831" s="49"/>
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A832" s="52" t="s">
+      <c r="A832" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B832" s="54"/>
-      <c r="C832" s="55"/>
+      <c r="B832" s="48"/>
+      <c r="C832" s="49"/>
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A833" s="52" t="s">
+      <c r="A833" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B833" s="54"/>
-      <c r="C833" s="55"/>
+      <c r="B833" s="48"/>
+      <c r="C833" s="49"/>
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A834" s="52" t="s">
+      <c r="A834" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="B834" s="54"/>
-      <c r="C834" s="55"/>
+      <c r="B834" s="48"/>
+      <c r="C834" s="49"/>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A835" s="55" t="s">
+      <c r="A835" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="B835" s="54"/>
-      <c r="C835" s="55"/>
+      <c r="B835" s="48"/>
+      <c r="C835" s="49"/>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A837" s="52" t="s">
+      <c r="A837" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B837" s="54"/>
-      <c r="C837" s="57"/>
+      <c r="B837" s="48"/>
+      <c r="C837" s="51"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A838" s="52" t="s">
+      <c r="A838" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B838" s="54"/>
-      <c r="C838" s="55"/>
+      <c r="B838" s="48"/>
+      <c r="C838" s="49"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A839" s="52" t="s">
+      <c r="A839" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B839" s="54"/>
-      <c r="C839" s="55"/>
+      <c r="B839" s="48"/>
+      <c r="C839" s="49"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A840" s="52" t="s">
+      <c r="A840" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="B840" s="54"/>
-      <c r="C840" s="55"/>
+      <c r="B840" s="48"/>
+      <c r="C840" s="49"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A842" s="55" t="s">
+      <c r="A842" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B842" s="54"/>
-      <c r="C842" s="55"/>
+      <c r="B842" s="48"/>
+      <c r="C842" s="49"/>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A843" s="55" t="s">
+      <c r="A843" s="49" t="s">
         <v>171</v>
       </c>
-      <c r="B843" s="54"/>
-      <c r="C843" s="55"/>
+      <c r="B843" s="48"/>
+      <c r="C843" s="49"/>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A845" s="73" t="s">
+      <c r="A845" s="65" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A846" s="73" t="s">
+      <c r="A846" s="65" t="s">
         <v>190</v>
       </c>
     </row>
@@ -8742,63 +8725,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.3984375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="79.09765625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="48.09765625" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="11" style="6"/>
+    <col min="1" max="1" width="45.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="79.09765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="48.09765625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="44" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="6">
-        <v>2022020201</v>
-      </c>
-      <c r="E2" s="75" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="4">
+        <v>2023330</v>
+      </c>
+      <c r="E2" s="67" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="23"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4CB7E3EB-A9FB-4FED-9088-3E5468647C7F}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
